--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F77E3E-B479-4A2E-A5CE-263FFD35CEAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,14 @@
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Year</t>
   </si>
@@ -136,9 +143,6 @@
     <t>8=2 to 7</t>
   </si>
   <si>
-    <t>2007-08</t>
-  </si>
-  <si>
     <t>2008-09</t>
   </si>
   <si>
@@ -163,18 +167,9 @@
     <t>2015-16</t>
   </si>
   <si>
-    <t>2016-17(P)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Distribution (%) </t>
   </si>
   <si>
-    <t>Growth rate of 2016-17 over 2015-16 (%)</t>
-  </si>
-  <si>
-    <t>CAGR 2007-08 to 2016-17(%)</t>
-  </si>
-  <si>
     <t>(P): Provisional</t>
   </si>
   <si>
@@ -190,9 +185,6 @@
     <t>Trends for BAU DR capacity</t>
   </si>
   <si>
-    <t>Draft National Electricity Plan</t>
-  </si>
-  <si>
     <t>Central electricity Authority</t>
   </si>
   <si>
@@ -205,9 +197,6 @@
     <t>Demand (TPDDL study)</t>
   </si>
   <si>
-    <t xml:space="preserve">Table 4.2 </t>
-  </si>
-  <si>
     <t>Trends for peak electricity demand</t>
   </si>
   <si>
@@ -269,15 +258,48 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>National Electricity Plan (from 19th EPS)</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
+  </si>
+  <si>
+    <t>Table 4.1</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18(P)</t>
+  </si>
+  <si>
+    <t>Growth rate of 2017-18 over 2016-17 (%)</t>
+  </si>
+  <si>
+    <t>CAGR 2008-09 to 2017-18(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 6.9: Consumption of Electricity by Sectors in India </t>
+  </si>
+  <si>
+    <t>http://www.mospi.gov.in/sites/default/files/publication_reports/Energy%20Statistics%202019-finall.pdf</t>
+  </si>
+  <si>
+    <t>Demand response is defined as the potential to reduce or shift electricity usage during peak</t>
+  </si>
+  <si>
+    <t>periods in response to time-based rates or other financial incentives.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -346,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +543,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,7 +567,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,54 +600,65 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -641,7 +680,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -668,20 +706,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>108796</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>51646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>392954</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>347710</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Shot 2018-04-14 at 12.19.27 am.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Shot 2018-04-14 at 12.19.27 am.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -700,8 +744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="2953596"/>
-          <a:ext cx="12584954" cy="7727104"/>
+          <a:off x="7642225" y="3861646"/>
+          <a:ext cx="11562604" cy="8285904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,19 +757,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Shot 2018-04-14 at 3.54.21 am.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Shot 2018-04-16 at 11.05.36 pm.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -744,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3327400"/>
-          <a:ext cx="7569200" cy="4470400"/>
+          <a:off x="301625" y="8343900"/>
+          <a:ext cx="7556500" cy="5842000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,39 +807,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Shot 2018-04-16 at 11.05.36 pm.png"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67635C3D-B2CF-4D03-A0D5-754C1B83BBB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="8826500"/>
-          <a:ext cx="8483600" cy="5448300"/>
+          <a:off x="0" y="3800474"/>
+          <a:ext cx="7572375" cy="4001045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,9 +927,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,6 +979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,11 +1171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,15 +1195,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1129,7 +1213,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,49 +1223,49 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
-        <v>52</v>
+      <c r="B11" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
-        <v>53</v>
+      <c r="B18" s="33" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,28 +1275,28 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="51" t="s">
-        <v>57</v>
+      <c r="B25" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,19 +1308,19 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,50 +1331,54 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
+      <c r="A35" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="A36" s="8"/>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>65</v>
+      <c r="A37" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,12 +1401,17 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1331,19 +1424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1469,7 +1563,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1552,7 +1646,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1766</v>
@@ -1790,141 +1884,141 @@
         <v>153366</v>
       </c>
       <c r="C7">
-        <v>170950</v>
+        <v>161834</v>
       </c>
       <c r="D7" s="13">
         <f>C7*(1+$B$9/100)</f>
-        <v>183668.68</v>
+        <v>172968.17919999998</v>
       </c>
       <c r="E7" s="13">
         <f>D7*(1+$B$9/100)</f>
-        <v>197333.62979199999</v>
+        <v>184868.38992895998</v>
       </c>
       <c r="F7" s="13">
         <f>E7*(1+$B$9/100)</f>
-        <v>212015.25184852479</v>
+        <v>197587.33515607243</v>
       </c>
       <c r="G7" s="13">
         <f>F7*(1+$B$9/100)</f>
-        <v>227789.18658605503</v>
+        <v>211181.34381481021</v>
       </c>
       <c r="H7">
         <v>244753</v>
       </c>
       <c r="I7" s="13">
         <f>H7*(1+$B$10/100)</f>
-        <v>259805.30950000003</v>
+        <v>258875.24810000003</v>
       </c>
       <c r="J7" s="13">
         <f>I7*(1+$B$10/100)</f>
-        <v>275783.33603425004</v>
+        <v>273812.34991537005</v>
       </c>
       <c r="K7" s="13">
         <f>J7*(1+$B$10/100)</f>
-        <v>292744.01120035647</v>
+        <v>289611.32250548695</v>
       </c>
       <c r="L7" s="13">
         <f>K7*(1+$B$10/100)</f>
-        <v>310747.76788917842</v>
+        <v>306321.8958140536</v>
       </c>
       <c r="M7">
         <v>329998</v>
       </c>
       <c r="N7" s="13">
         <f>M7*(1+$B$10/100)</f>
-        <v>350292.87700000004</v>
+        <v>349038.88460000005</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" ref="O7:AK7" si="2">N7*(1+$B$10/100)</f>
-        <v>371835.88893550006</v>
+        <v>369178.42824142007</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="2"/>
-        <v>394703.79610503337</v>
+        <v>390480.02355095005</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="2"/>
-        <v>418978.07956549298</v>
+        <v>413010.7209098399</v>
       </c>
       <c r="R7" s="13">
         <f t="shared" si="2"/>
-        <v>444745.23145877087</v>
+        <v>436841.43950633769</v>
       </c>
       <c r="S7" s="13">
         <f t="shared" si="2"/>
-        <v>472097.06319348532</v>
+        <v>462047.19056585338</v>
       </c>
       <c r="T7" s="13">
         <f t="shared" si="2"/>
-        <v>501131.03257988469</v>
+        <v>488707.31346150313</v>
       </c>
       <c r="U7" s="13">
         <f t="shared" si="2"/>
-        <v>531950.59108354768</v>
+        <v>516905.72544823191</v>
       </c>
       <c r="V7" s="13">
         <f t="shared" si="2"/>
-        <v>564665.55243518588</v>
+        <v>546731.18580659491</v>
       </c>
       <c r="W7" s="13">
         <f t="shared" si="2"/>
-        <v>599392.48390994989</v>
+        <v>578277.57522763545</v>
       </c>
       <c r="X7" s="13">
         <f t="shared" si="2"/>
-        <v>636255.1216704119</v>
+        <v>611644.19131827005</v>
       </c>
       <c r="Y7" s="13">
         <f t="shared" si="2"/>
-        <v>675384.81165314233</v>
+        <v>646936.06115733425</v>
       </c>
       <c r="Z7" s="13">
         <f t="shared" si="2"/>
-        <v>716920.9775698107</v>
+        <v>684264.27188611252</v>
       </c>
       <c r="AA7" s="13">
         <f t="shared" si="2"/>
-        <v>761011.61769035412</v>
+        <v>723746.32037394121</v>
       </c>
       <c r="AB7" s="13">
         <f t="shared" si="2"/>
-        <v>807813.83217831096</v>
+        <v>765506.48305951769</v>
       </c>
       <c r="AC7" s="13">
         <f t="shared" si="2"/>
-        <v>857494.38285727717</v>
+        <v>809676.20713205193</v>
       </c>
       <c r="AD7" s="13">
         <f t="shared" si="2"/>
-        <v>910230.28740299982</v>
+        <v>856394.5242835714</v>
       </c>
       <c r="AE7" s="13">
         <f t="shared" si="2"/>
-        <v>966209.45007828437</v>
+        <v>905808.48833473353</v>
       </c>
       <c r="AF7" s="13">
         <f t="shared" si="2"/>
-        <v>1025631.3312580989</v>
+        <v>958073.63811164768</v>
       </c>
       <c r="AG7" s="13">
         <f t="shared" si="2"/>
-        <v>1088707.6581304721</v>
+        <v>1013354.4870306898</v>
       </c>
       <c r="AH7" s="13">
         <f t="shared" si="2"/>
-        <v>1155663.1791054963</v>
+        <v>1071825.0409323608</v>
       </c>
       <c r="AI7" s="13">
         <f t="shared" si="2"/>
-        <v>1226736.4646204845</v>
+        <v>1133669.3457941581</v>
       </c>
       <c r="AJ7" s="13">
         <f t="shared" si="2"/>
-        <v>1302180.7571946445</v>
+        <v>1199082.0670464812</v>
       </c>
       <c r="AK7" s="13">
         <f t="shared" si="2"/>
-        <v>1382264.8737621154</v>
+        <v>1268269.1023150634</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1933,147 +2027,147 @@
       </c>
       <c r="B8" s="9">
         <f t="shared" ref="B8:AK8" si="3">B7*B6*$C$17/10000</f>
-        <v>213.79604603367167</v>
+        <v>217.04932691473061</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="3"/>
-        <v>226.26503051684927</v>
+        <v>217.45874449471464</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="3"/>
-        <v>555.37082916403256</v>
+        <v>530.97362379816002</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="3"/>
-        <v>711.62907619653117</v>
+        <v>676.8212928537813</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="3"/>
-        <v>974.69537774382388</v>
+        <v>922.18845458994383</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="3"/>
-        <v>1253.9857072128464</v>
+        <v>1180.2494484622082</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="3"/>
-        <v>1448.1762050916316</v>
+        <v>1470.2127396666774</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="3"/>
-        <v>1635.9437762602449</v>
+        <v>1654.8919905861546</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="3"/>
-        <v>1833.5066324209768</v>
+        <v>1848.1034226323541</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" si="3"/>
-        <v>2041.7748217443798</v>
+        <v>2050.6622461192237</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="3"/>
-        <v>2374.7658181507682</v>
+        <v>2376.5643979719566</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>2437.2149872827472</v>
+        <v>2474.3014772728775</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>2503.0720059439464</v>
+        <v>2532.0636776199945</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>2634.6955654948583</v>
+        <v>2655.6707273842894</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="3"/>
-        <v>2711.4300052579833</v>
+        <v>2723.2323004292134</v>
       </c>
       <c r="Q8" s="9">
         <f t="shared" si="3"/>
-        <v>2792.9974350414736</v>
+        <v>2795.1127715470357</v>
       </c>
       <c r="R8" s="9">
         <f t="shared" si="3"/>
-        <v>2879.5410656555846</v>
+        <v>2871.4058447724133</v>
       </c>
       <c r="S8" s="9">
         <f t="shared" si="3"/>
-        <v>2971.2215786868101</v>
+        <v>2952.2208964897754</v>
       </c>
       <c r="T8" s="9">
         <f t="shared" si="3"/>
-        <v>3068.2167548382386</v>
+        <v>3037.6823129030599</v>
       </c>
       <c r="U8" s="9">
         <f t="shared" si="3"/>
-        <v>3170.7212812026501</v>
+        <v>3127.9290151442751</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="3"/>
-        <v>3355.2012870670042</v>
+        <v>3298.0702856471398</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="3"/>
-        <v>3472.0313695304931</v>
+        <v>3400.6933581166468</v>
       </c>
       <c r="X8" s="9">
         <f t="shared" si="3"/>
-        <v>3595.2006409362948</v>
+        <v>3508.7261305819297</v>
       </c>
       <c r="Y8" s="9">
         <f t="shared" si="3"/>
-        <v>3809.6370147047683</v>
+        <v>3704.6948555443832</v>
       </c>
       <c r="Z8" s="9">
         <f t="shared" si="3"/>
-        <v>3949.4171622766262</v>
+        <v>3826.8757287245421</v>
       </c>
       <c r="AA8" s="9">
         <f t="shared" si="3"/>
-        <v>4187.598404388249</v>
+        <v>4043.1409513973103</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="3"/>
-        <v>4445.1357062581264</v>
+        <v>4276.4301842929344</v>
       </c>
       <c r="AC8" s="9">
         <f t="shared" si="3"/>
-        <v>4718.511552193002</v>
+        <v>4523.1802059266374</v>
       </c>
       <c r="AD8" s="9">
         <f t="shared" si="3"/>
-        <v>5008.7000126528719</v>
+        <v>4784.1677038086045</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>5316.7350634310242</v>
+        <v>5060.2141803183622</v>
       </c>
       <c r="AF8" s="9">
         <f t="shared" si="3"/>
-        <v>5643.7142698320322</v>
+        <v>5352.1885385227324</v>
       </c>
       <c r="AG8" s="9">
         <f t="shared" si="3"/>
-        <v>5990.8026974267032</v>
+        <v>5661.0098171954942</v>
       </c>
       <c r="AH8" s="9">
         <f t="shared" si="3"/>
-        <v>6359.2370633184446</v>
+        <v>5987.6500836476744</v>
       </c>
       <c r="AI8" s="9">
         <f t="shared" si="3"/>
-        <v>6750.3301427125316</v>
+        <v>6333.1374934741461</v>
       </c>
       <c r="AJ8" s="9">
         <f t="shared" si="3"/>
-        <v>7165.4754464893531</v>
+        <v>6698.5595268476054</v>
       </c>
       <c r="AK8" s="9">
         <f t="shared" si="3"/>
-        <v>7606.1521864484484</v>
+        <v>7085.0664115467134</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -2081,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>7.44</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
@@ -2089,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>6.15</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -2098,147 +2192,147 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" ref="B12:AK12" si="4">$C$19*B7/100</f>
-        <v>10001.915932733675</v>
+        <v>10107.217069556609</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="4"/>
-        <v>11148.673947946883</v>
+        <v>10665.280226612314</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="4"/>
-        <v>11978.135289674132</v>
+        <v>11399.051506203241</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="4"/>
-        <v>12869.308555225885</v>
+        <v>12183.306249830024</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="4"/>
-        <v>13826.785111734693</v>
+        <v>13021.51771981833</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="4"/>
-        <v>14855.497924047753</v>
+        <v>13917.398138941831</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="4"/>
-        <v>15961.809855407098</v>
+        <v>16129.857330993758</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="4"/>
-        <v>16943.461161514639</v>
+        <v>17060.550098992102</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="4"/>
-        <v>17985.484022947789</v>
+        <v>18044.943839703948</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="4"/>
-        <v>19091.59129035908</v>
+        <v>19086.137099254865</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="4"/>
-        <v>20265.724154716165</v>
+        <v>20187.407209881876</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="4"/>
-        <v>21521.147151065081</v>
+        <v>21747.723866564571</v>
       </c>
       <c r="N12" s="9">
         <f t="shared" si="4"/>
-        <v>22844.697700855588</v>
+        <v>23002.567533665351</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="4"/>
-        <v>24249.646609458207</v>
+        <v>24329.815680357842</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="4"/>
-        <v>25740.999875939888</v>
+        <v>25733.646045114492</v>
       </c>
       <c r="Q12" s="9">
         <f t="shared" si="4"/>
-        <v>27324.071368310197</v>
+        <v>27218.477421917603</v>
       </c>
       <c r="R12" s="9">
         <f t="shared" si="4"/>
-        <v>29004.501757461276</v>
+        <v>28788.983569162247</v>
       </c>
       <c r="S12" s="9">
         <f t="shared" si="4"/>
-        <v>30788.278615545147</v>
+        <v>30450.10792110291</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="4"/>
-        <v>32681.757750401175</v>
+        <v>32207.079148150548</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="4"/>
-        <v>34691.685852050854</v>
+        <v>34065.427614998844</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="4"/>
-        <v>36825.224531951986</v>
+        <v>36031.00278838427</v>
       </c>
       <c r="W12" s="9">
         <f t="shared" si="4"/>
-        <v>39089.975840667037</v>
+        <v>38109.991649274045</v>
       </c>
       <c r="X12" s="9">
         <f t="shared" si="4"/>
-        <v>41494.009354868067</v>
+        <v>40308.938167437162</v>
       </c>
       <c r="Y12" s="9">
         <f t="shared" si="4"/>
-        <v>44045.89093019245</v>
+        <v>42634.763899698286</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="4"/>
-        <v>46754.713222399296</v>
+        <v>45094.789776710888</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="4"/>
-        <v>49630.128085576864</v>
+        <v>47696.759146827106</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="4"/>
-        <v>52682.380962839845</v>
+        <v>50448.86214959903</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="4"/>
-        <v>55922.3473920545</v>
+        <v>53359.761495630897</v>
       </c>
       <c r="AD12" s="9">
         <f t="shared" si="4"/>
-        <v>59361.571756665857</v>
+        <v>56438.619733928805</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="4"/>
-        <v>63012.308419700814</v>
+        <v>59695.128092576495</v>
       </c>
       <c r="AF12" s="9">
         <f t="shared" si="4"/>
-        <v>66887.565387512412</v>
+        <v>63139.53698351817</v>
       </c>
       <c r="AG12" s="9">
         <f t="shared" si="4"/>
-        <v>71001.150658844432</v>
+        <v>66782.688267467165</v>
       </c>
       <c r="AH12" s="9">
         <f t="shared" si="4"/>
-        <v>75367.721424363379</v>
+        <v>70636.049380500044</v>
       </c>
       <c r="AI12" s="9">
         <f t="shared" si="4"/>
-        <v>80002.836291961736</v>
+        <v>74711.749429754898</v>
       </c>
       <c r="AJ12" s="9">
         <f t="shared" si="4"/>
-        <v>84923.010723917396</v>
+        <v>79022.617371851768</v>
       </c>
       <c r="AK12" s="9">
         <f t="shared" si="4"/>
-        <v>90145.775883438328</v>
+        <v>83582.222394207623</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -2319,15 +2413,15 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15">
-        <f>18*620+14*430+15*1100+7*4600+3*1900+16*7300+14*2700+12*770+24*1000+16*1400+12*430+19*1900+28*170+14*2200+13*1000+15*560+26*60+920*15+8*2000</f>
-        <v>411400</v>
+        <f>18*620+14*430+15*1100+7*4600+2*1900+16*7300+14*2700+12*770+24*1000+16*1400+12*430+19*1900+28*170+14*2200+13*1000+15*560+26*60+920*15+8*2000</f>
+        <v>409500</v>
       </c>
       <c r="D15">
         <f>C15/(620+430+1100+4600+1900+7300+2700+770+1000+1400+430+1900+170+2200+1000+560+60+920+2000)</f>
-        <v>13.245331616226657</v>
+        <v>13.184159690920799</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2400,11 +2494,11 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12">
-        <f>E99+H99</f>
-        <v>49.236964815599833</v>
+        <f>E95+H95</f>
+        <v>49.986191376369504</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2477,11 +2571,11 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="43">
-        <f>D15*(E99+H99)/100</f>
-        <v>6.5215992675910401</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="32">
+        <f>D15*(E95+H95)/100</f>
+        <v>6.5902592944698366</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -2490,559 +2584,563 @@
         <v>6.8965517241379306</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K67" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="44" t="s">
+      <c r="E80" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="48" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="48" t="s">
+      <c r="F81" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="48" t="s">
+      <c r="G81" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H85" s="48" t="s">
+      <c r="H81" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I81" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="48" t="s">
+      <c r="J81" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K81" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="18" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="51"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J86" s="49"/>
-      <c r="K86" s="19" t="s">
+      <c r="J82" s="54"/>
+      <c r="K82" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="21" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="52"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J87" s="50"/>
-      <c r="K87" s="22" t="s">
+      <c r="J83" s="55"/>
+      <c r="K83" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="23">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
         <v>1</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="34">
         <v>2</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F84" s="34">
         <v>3</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G84" s="34">
         <v>4</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H84" s="34">
         <v>5</v>
       </c>
-      <c r="I88" s="23">
+      <c r="I84" s="34">
         <v>6</v>
       </c>
-      <c r="J88" s="23">
+      <c r="J84" s="34">
         <v>7</v>
       </c>
-      <c r="K88" s="24" t="s">
+      <c r="K84" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27">
-        <v>189424</v>
-      </c>
-      <c r="F89" s="27">
-        <v>104182</v>
-      </c>
-      <c r="G89" s="27">
-        <v>120918</v>
-      </c>
-      <c r="H89" s="27">
-        <v>46685</v>
-      </c>
-      <c r="I89" s="27">
-        <v>11108</v>
-      </c>
-      <c r="J89" s="27">
-        <v>29660</v>
-      </c>
-      <c r="K89" s="28">
-        <v>501977</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="37">
+        <v>209474.12781608119</v>
+      </c>
+      <c r="F85" s="37">
+        <v>109609.77877866759</v>
+      </c>
+      <c r="G85" s="37">
+        <v>131719.81337273202</v>
+      </c>
+      <c r="H85" s="37">
+        <v>54189.190079562402</v>
+      </c>
+      <c r="I85" s="37">
+        <v>11424.783703703704</v>
+      </c>
+      <c r="J85" s="37">
+        <v>37577.019349878268</v>
+      </c>
+      <c r="K85" s="38">
+        <v>553995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27">
-        <v>209474.12781608119</v>
-      </c>
-      <c r="F90" s="27">
-        <v>109609.77877866759</v>
-      </c>
-      <c r="G90" s="27">
-        <v>131719.81337273202</v>
-      </c>
-      <c r="H90" s="27">
-        <v>54189.190079562402</v>
-      </c>
-      <c r="I90" s="27">
-        <v>11424.783703703704</v>
-      </c>
-      <c r="J90" s="27">
-        <v>37577.019349878268</v>
-      </c>
-      <c r="K90" s="28">
-        <v>553995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="37">
+        <v>236752.19076651</v>
+      </c>
+      <c r="F86" s="37">
+        <v>120208.7574092943</v>
+      </c>
+      <c r="G86" s="37">
+        <v>146080.15510040961</v>
+      </c>
+      <c r="H86" s="37">
+        <v>60600.284304184614</v>
+      </c>
+      <c r="I86" s="37">
+        <v>12408.252614641995</v>
+      </c>
+      <c r="J86" s="37">
+        <v>36595.349224177386</v>
+      </c>
+      <c r="K86" s="37">
+        <v>612644.98941921792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="27">
-        <v>236752.19076651</v>
-      </c>
-      <c r="F91" s="27">
-        <v>120208.7574092943</v>
-      </c>
-      <c r="G91" s="27">
-        <v>146080.15510040961</v>
-      </c>
-      <c r="H91" s="27">
-        <v>60600.284304184614</v>
-      </c>
-      <c r="I91" s="27">
-        <v>12408.252614641995</v>
-      </c>
-      <c r="J91" s="27">
-        <v>36595.349224177386</v>
-      </c>
-      <c r="K91" s="28">
-        <v>612644.98941921792</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="37">
+        <v>272589</v>
+      </c>
+      <c r="F87" s="37">
+        <v>131967</v>
+      </c>
+      <c r="G87" s="37">
+        <v>169326</v>
+      </c>
+      <c r="H87" s="37">
+        <v>67289</v>
+      </c>
+      <c r="I87" s="37">
+        <v>14003</v>
+      </c>
+      <c r="J87" s="37">
+        <v>39218</v>
+      </c>
+      <c r="K87" s="37">
+        <v>694392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="27">
-        <v>272589</v>
-      </c>
-      <c r="F92" s="27">
-        <v>131967</v>
-      </c>
-      <c r="G92" s="27">
-        <v>169326</v>
-      </c>
-      <c r="H92" s="27">
-        <v>67289</v>
-      </c>
-      <c r="I92" s="27">
-        <v>14003</v>
-      </c>
-      <c r="J92" s="27">
-        <v>39218</v>
-      </c>
-      <c r="K92" s="28">
-        <v>694392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="29" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="37">
+        <v>352291</v>
+      </c>
+      <c r="F88" s="37">
+        <v>140960</v>
+      </c>
+      <c r="G88" s="37">
+        <v>171104</v>
+      </c>
+      <c r="H88" s="37">
+        <v>65381</v>
+      </c>
+      <c r="I88" s="37">
+        <v>14206</v>
+      </c>
+      <c r="J88" s="37">
+        <v>41252</v>
+      </c>
+      <c r="K88" s="37">
+        <v>785194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="27">
-        <v>352291</v>
-      </c>
-      <c r="F93" s="27">
-        <v>140960</v>
-      </c>
-      <c r="G93" s="27">
-        <v>171104</v>
-      </c>
-      <c r="H93" s="27">
-        <v>65381</v>
-      </c>
-      <c r="I93" s="27">
-        <v>14206</v>
-      </c>
-      <c r="J93" s="27">
-        <v>41252</v>
-      </c>
-      <c r="K93" s="28">
-        <v>785194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="29" t="s">
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="37">
+        <v>365988.99</v>
+      </c>
+      <c r="F89" s="37">
+        <v>147462</v>
+      </c>
+      <c r="G89" s="37">
+        <v>183700</v>
+      </c>
+      <c r="H89" s="37">
+        <v>72794</v>
+      </c>
+      <c r="I89" s="37">
+        <v>14100</v>
+      </c>
+      <c r="J89" s="37">
+        <v>40256</v>
+      </c>
+      <c r="K89" s="37">
+        <v>824300.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="27">
-        <v>365988.99</v>
-      </c>
-      <c r="F94" s="27">
-        <v>147462</v>
-      </c>
-      <c r="G94" s="27">
-        <v>183700</v>
-      </c>
-      <c r="H94" s="27">
-        <v>72794</v>
-      </c>
-      <c r="I94" s="27">
-        <v>14100</v>
-      </c>
-      <c r="J94" s="27">
-        <v>40256</v>
-      </c>
-      <c r="K94" s="28">
-        <v>824300.99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="37">
+        <v>384418.2794984277</v>
+      </c>
+      <c r="F90" s="37">
+        <v>152744.32570698805</v>
+      </c>
+      <c r="G90" s="37">
+        <v>199841.78628002029</v>
+      </c>
+      <c r="H90" s="37">
+        <v>74246.963235908886</v>
+      </c>
+      <c r="I90" s="37">
+        <v>15539.688867794344</v>
+      </c>
+      <c r="J90" s="37">
+        <v>47417.52291086076</v>
+      </c>
+      <c r="K90" s="37">
+        <v>874208.56649999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27">
-        <v>384418.2794984277</v>
-      </c>
-      <c r="F95" s="27">
-        <v>152744.32570698805</v>
-      </c>
-      <c r="G95" s="27">
-        <v>199841.78628002029</v>
-      </c>
-      <c r="H95" s="27">
-        <v>74246.963235908886</v>
-      </c>
-      <c r="I95" s="27">
-        <v>15539.688867794344</v>
-      </c>
-      <c r="J95" s="27">
-        <v>47417.52291086076</v>
-      </c>
-      <c r="K95" s="30">
-        <v>874208.56649999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="37">
+        <v>418346.16624665877</v>
+      </c>
+      <c r="F91" s="37">
+        <v>168913.45725601545</v>
+      </c>
+      <c r="G91" s="37">
+        <v>217404.72234963675</v>
+      </c>
+      <c r="H91" s="37">
+        <v>78391.386457368004</v>
+      </c>
+      <c r="I91" s="37">
+        <v>16176.94</v>
+      </c>
+      <c r="J91" s="37">
+        <v>49289</v>
+      </c>
+      <c r="K91" s="37">
+        <v>948521.67230967898</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="27">
-        <v>418346.16624665877</v>
-      </c>
-      <c r="F96" s="27">
-        <v>168913.45725601545</v>
-      </c>
-      <c r="G96" s="27">
-        <v>217404.72234963675</v>
-      </c>
-      <c r="H96" s="27">
-        <v>78391.386457368004</v>
-      </c>
-      <c r="I96" s="27">
-        <v>16176.94</v>
-      </c>
-      <c r="J96" s="27">
-        <v>49289</v>
-      </c>
-      <c r="K96" s="30">
-        <v>948521.67230967898</v>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="37">
+        <v>423522.94024919398</v>
+      </c>
+      <c r="F92" s="37">
+        <v>173185.36546184841</v>
+      </c>
+      <c r="G92" s="37">
+        <v>238875.69057048182</v>
+      </c>
+      <c r="H92" s="37">
+        <v>86036.571008999075</v>
+      </c>
+      <c r="I92" s="37">
+        <v>16594.330000000002</v>
+      </c>
+      <c r="J92" s="37">
+        <v>62975.787018054529</v>
+      </c>
+      <c r="K92" s="37">
+        <v>1001190.6843085778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="37">
+        <v>440205.5156759005</v>
+      </c>
+      <c r="F93" s="37">
+        <v>191150.88740685093</v>
+      </c>
+      <c r="G93" s="37">
+        <v>255826.00848008768</v>
+      </c>
+      <c r="H93" s="37">
+        <v>89824.931384403026</v>
+      </c>
+      <c r="I93" s="37">
+        <v>15682.75</v>
+      </c>
+      <c r="J93" s="37">
+        <v>68492.545322690057</v>
+      </c>
+      <c r="K93" s="37">
+        <v>1061182.6382699322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="42">
+        <v>468825.21119999996</v>
+      </c>
+      <c r="F94" s="43">
+        <v>204293.44575095654</v>
+      </c>
+      <c r="G94" s="37">
+        <v>273549.69270568853</v>
+      </c>
+      <c r="H94" s="37">
+        <v>96140.63643289663</v>
+      </c>
+      <c r="I94" s="37">
+        <v>14356</v>
+      </c>
+      <c r="J94" s="37">
+        <v>73078.851411506243</v>
+      </c>
+      <c r="K94" s="43">
+        <v>1130243.8375010479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="44">
+        <v>41.480005963718895</v>
+      </c>
+      <c r="F95" s="44">
+        <v>18.075165638827659</v>
+      </c>
+      <c r="G95" s="44">
+        <v>24.202714815105985</v>
+      </c>
+      <c r="H95" s="44">
+        <v>8.5061854126506127</v>
+      </c>
+      <c r="I95" s="44">
+        <v>1.270168394082192</v>
+      </c>
+      <c r="J95" s="44">
+        <v>6.4657597756146572</v>
+      </c>
+      <c r="K95" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="46">
+        <v>6.5014395560574005</v>
+      </c>
+      <c r="F96" s="46">
+        <v>6.8754890560003616</v>
+      </c>
+      <c r="G96" s="46">
+        <v>6.92802281163699</v>
+      </c>
+      <c r="H96" s="46">
+        <v>7.0311270503127226</v>
+      </c>
+      <c r="I96" s="46">
+        <v>-8.4599320909916962</v>
+      </c>
+      <c r="J96" s="46">
+        <v>6.6960660714368929</v>
+      </c>
+      <c r="K96" s="46">
+        <v>6.5079465815335542</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="27">
-        <v>423522.94024919398</v>
-      </c>
-      <c r="F97" s="27">
-        <v>173185.36546184841</v>
-      </c>
-      <c r="G97" s="27">
-        <v>238875.69057048182</v>
-      </c>
-      <c r="H97" s="27">
-        <v>86036.571008999075</v>
-      </c>
-      <c r="I97" s="27">
-        <v>16594.330000000002</v>
-      </c>
-      <c r="J97" s="27">
-        <v>62975.787018054529</v>
-      </c>
-      <c r="K97" s="28">
-        <v>1001190.6843085778</v>
+      <c r="A97" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="48">
+        <v>8.3897105964131811</v>
+      </c>
+      <c r="F97" s="48">
+        <v>6.4242291621283032</v>
+      </c>
+      <c r="G97" s="48">
+        <v>7.5817271884242254</v>
+      </c>
+      <c r="H97" s="48">
+        <v>5.9008469130015007</v>
+      </c>
+      <c r="I97" s="48">
+        <v>2.3101087504606044</v>
+      </c>
+      <c r="J97" s="48">
+        <v>6.8776604275098352</v>
+      </c>
+      <c r="K97" s="48">
+        <v>7.3906893769725812</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="30">
-        <v>426665</v>
-      </c>
-      <c r="F98" s="33">
-        <v>195473</v>
-      </c>
-      <c r="G98" s="27">
-        <v>259311</v>
-      </c>
-      <c r="H98" s="27">
-        <v>98333</v>
-      </c>
-      <c r="I98" s="27">
-        <v>17217</v>
-      </c>
-      <c r="J98" s="27">
-        <v>69269</v>
-      </c>
-      <c r="K98" s="34">
-        <v>1066268</v>
-      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="36">
-        <v>40.014799281231362</v>
-      </c>
-      <c r="F99" s="36">
-        <v>18.332445501506186</v>
-      </c>
-      <c r="G99" s="36">
-        <v>24.319495661503488</v>
-      </c>
-      <c r="H99" s="36">
-        <v>9.2221655343684699</v>
-      </c>
-      <c r="I99" s="36">
-        <v>1.6146972430946067</v>
-      </c>
-      <c r="J99" s="36">
-        <v>6.4963967782958871</v>
-      </c>
-      <c r="K99" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="36">
-        <v>0.74188655494252087</v>
-      </c>
-      <c r="F100" s="36">
-        <v>12.86923665790999</v>
-      </c>
-      <c r="G100" s="36">
-        <v>8.5547882167141687</v>
-      </c>
-      <c r="H100" s="36">
-        <v>14.29209561328841</v>
-      </c>
-      <c r="I100" s="36">
-        <v>3.7523057574484668</v>
-      </c>
-      <c r="J100" s="36">
-        <v>9.9930676215944239</v>
-      </c>
-      <c r="K100" s="36">
-        <v>6.4999921305065476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="40">
-        <v>8.4589015126004909</v>
-      </c>
-      <c r="F101" s="40">
-        <v>6.4950468127695116</v>
-      </c>
-      <c r="G101" s="40">
-        <v>7.9277189790833313</v>
-      </c>
-      <c r="H101" s="40">
-        <v>7.7338530831960961</v>
-      </c>
-      <c r="I101" s="40">
-        <v>4.479758682294932</v>
-      </c>
-      <c r="J101" s="40">
-        <v>8.8520912684069586</v>
-      </c>
-      <c r="K101" s="40">
-        <v>7.8246993076618532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>54</v>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E84:L84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E80:L80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="J81:J83"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A47" r:id="rId1"/>
-    <hyperlink ref="K67" r:id="rId2"/>
-    <hyperlink ref="B81" r:id="rId3"/>
-    <hyperlink ref="A105" r:id="rId4"/>
+    <hyperlink ref="A42" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K67" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B77" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3052,13 +3150,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
@@ -3186,147 +3284,147 @@
       </c>
       <c r="B2" s="9">
         <f>Calculations_India!B8</f>
-        <v>213.79604603367167</v>
+        <v>217.04932691473061</v>
       </c>
       <c r="C2" s="9">
         <f>Calculations_India!C8</f>
-        <v>226.26503051684927</v>
+        <v>217.45874449471464</v>
       </c>
       <c r="D2" s="9">
         <f>Calculations_India!D8</f>
-        <v>555.37082916403256</v>
+        <v>530.97362379816002</v>
       </c>
       <c r="E2" s="9">
         <f>Calculations_India!E8</f>
-        <v>711.62907619653117</v>
+        <v>676.8212928537813</v>
       </c>
       <c r="F2" s="9">
         <f>Calculations_India!F8</f>
-        <v>974.69537774382388</v>
+        <v>922.18845458994383</v>
       </c>
       <c r="G2" s="9">
         <f>Calculations_India!G8</f>
-        <v>1253.9857072128464</v>
+        <v>1180.2494484622082</v>
       </c>
       <c r="H2" s="9">
         <f>Calculations_India!H8</f>
-        <v>1448.1762050916316</v>
+        <v>1470.2127396666774</v>
       </c>
       <c r="I2" s="9">
         <f>Calculations_India!I8</f>
-        <v>1635.9437762602449</v>
+        <v>1654.8919905861546</v>
       </c>
       <c r="J2" s="9">
         <f>Calculations_India!J8</f>
-        <v>1833.5066324209768</v>
+        <v>1848.1034226323541</v>
       </c>
       <c r="K2" s="9">
         <f>Calculations_India!K8</f>
-        <v>2041.7748217443798</v>
+        <v>2050.6622461192237</v>
       </c>
       <c r="L2" s="9">
         <f>Calculations_India!L8</f>
-        <v>2374.7658181507682</v>
+        <v>2376.5643979719566</v>
       </c>
       <c r="M2" s="9">
         <f>Calculations_India!M8</f>
-        <v>2437.2149872827472</v>
+        <v>2474.3014772728775</v>
       </c>
       <c r="N2" s="9">
         <f>Calculations_India!N8</f>
-        <v>2503.0720059439464</v>
+        <v>2532.0636776199945</v>
       </c>
       <c r="O2" s="9">
         <f>Calculations_India!O8</f>
-        <v>2634.6955654948583</v>
+        <v>2655.6707273842894</v>
       </c>
       <c r="P2" s="9">
         <f>Calculations_India!P8</f>
-        <v>2711.4300052579833</v>
+        <v>2723.2323004292134</v>
       </c>
       <c r="Q2" s="9">
         <f>Calculations_India!Q8</f>
-        <v>2792.9974350414736</v>
+        <v>2795.1127715470357</v>
       </c>
       <c r="R2" s="9">
         <f>Calculations_India!R8</f>
-        <v>2879.5410656555846</v>
+        <v>2871.4058447724133</v>
       </c>
       <c r="S2" s="9">
         <f>Calculations_India!S8</f>
-        <v>2971.2215786868101</v>
+        <v>2952.2208964897754</v>
       </c>
       <c r="T2" s="9">
         <f>Calculations_India!T8</f>
-        <v>3068.2167548382386</v>
+        <v>3037.6823129030599</v>
       </c>
       <c r="U2" s="9">
         <f>Calculations_India!U8</f>
-        <v>3170.7212812026501</v>
+        <v>3127.9290151442751</v>
       </c>
       <c r="V2" s="9">
         <f>Calculations_India!V8</f>
-        <v>3355.2012870670042</v>
+        <v>3298.0702856471398</v>
       </c>
       <c r="W2" s="9">
         <f>Calculations_India!W8</f>
-        <v>3472.0313695304931</v>
+        <v>3400.6933581166468</v>
       </c>
       <c r="X2" s="9">
         <f>Calculations_India!X8</f>
-        <v>3595.2006409362948</v>
+        <v>3508.7261305819297</v>
       </c>
       <c r="Y2" s="9">
         <f>Calculations_India!Y8</f>
-        <v>3809.6370147047683</v>
+        <v>3704.6948555443832</v>
       </c>
       <c r="Z2" s="9">
         <f>Calculations_India!Z8</f>
-        <v>3949.4171622766262</v>
+        <v>3826.8757287245421</v>
       </c>
       <c r="AA2" s="9">
         <f>Calculations_India!AA8</f>
-        <v>4187.598404388249</v>
+        <v>4043.1409513973103</v>
       </c>
       <c r="AB2" s="9">
         <f>Calculations_India!AB8</f>
-        <v>4445.1357062581264</v>
+        <v>4276.4301842929344</v>
       </c>
       <c r="AC2" s="9">
         <f>Calculations_India!AC8</f>
-        <v>4718.511552193002</v>
+        <v>4523.1802059266374</v>
       </c>
       <c r="AD2" s="9">
         <f>Calculations_India!AD8</f>
-        <v>5008.7000126528719</v>
+        <v>4784.1677038086045</v>
       </c>
       <c r="AE2" s="9">
         <f>Calculations_India!AE8</f>
-        <v>5316.7350634310242</v>
+        <v>5060.2141803183622</v>
       </c>
       <c r="AF2" s="9">
         <f>Calculations_India!AF8</f>
-        <v>5643.7142698320322</v>
+        <v>5352.1885385227324</v>
       </c>
       <c r="AG2" s="9">
         <f>Calculations_India!AG8</f>
-        <v>5990.8026974267032</v>
+        <v>5661.0098171954942</v>
       </c>
       <c r="AH2" s="9">
         <f>Calculations_India!AH8</f>
-        <v>6359.2370633184446</v>
+        <v>5987.6500836476744</v>
       </c>
       <c r="AI2" s="9">
         <f>Calculations_India!AI8</f>
-        <v>6750.3301427125316</v>
+        <v>6333.1374934741461</v>
       </c>
       <c r="AJ2" s="9">
         <f>Calculations_India!AJ8</f>
-        <v>7165.4754464893531</v>
+        <v>6698.5595268476054</v>
       </c>
       <c r="AK2" s="9">
         <f>Calculations_India!AK8</f>
-        <v>7606.1521864484484</v>
+        <v>7085.0664115467134</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3474,147 +3572,147 @@
       </c>
       <c r="B2" s="9">
         <f>Calculations_India!B12-Calculations_India!B8</f>
-        <v>9788.1198867000039</v>
+        <v>9890.1677426418792</v>
       </c>
       <c r="C2" s="9">
         <f>Calculations_India!C12-Calculations_India!C8</f>
-        <v>10922.408917430033</v>
+        <v>10447.821482117601</v>
       </c>
       <c r="D2" s="9">
         <f>Calculations_India!D12-Calculations_India!D8</f>
-        <v>11422.7644605101</v>
+        <v>10868.077882405081</v>
       </c>
       <c r="E2" s="9">
         <f>Calculations_India!E12-Calculations_India!E8</f>
-        <v>12157.679479029353</v>
+        <v>11506.484956976243</v>
       </c>
       <c r="F2" s="9">
         <f>Calculations_India!F12-Calculations_India!F8</f>
-        <v>12852.08973399087</v>
+        <v>12099.329265228385</v>
       </c>
       <c r="G2" s="9">
         <f>Calculations_India!G12-Calculations_India!G8</f>
-        <v>13601.512216834906</v>
+        <v>12737.148690479624</v>
       </c>
       <c r="H2" s="9">
         <f>Calculations_India!H12-Calculations_India!H8</f>
-        <v>14513.633650315467</v>
+        <v>14659.64459132708</v>
       </c>
       <c r="I2" s="9">
         <f>Calculations_India!I12-Calculations_India!I8</f>
-        <v>15307.517385254394</v>
+        <v>15405.658108405947</v>
       </c>
       <c r="J2" s="9">
         <f>Calculations_India!J12-Calculations_India!J8</f>
-        <v>16151.977390526812</v>
+        <v>16196.840417071595</v>
       </c>
       <c r="K2" s="9">
         <f>Calculations_India!K12-Calculations_India!K8</f>
-        <v>17049.816468614699</v>
+        <v>17035.474853135642</v>
       </c>
       <c r="L2" s="9">
         <f>Calculations_India!L12-Calculations_India!L8</f>
-        <v>17890.958336565396</v>
+        <v>17810.842811909919</v>
       </c>
       <c r="M2" s="9">
         <f>Calculations_India!M12-Calculations_India!M8</f>
-        <v>19083.932163782334</v>
+        <v>19273.422389291693</v>
       </c>
       <c r="N2" s="9">
         <f>Calculations_India!N12-Calculations_India!N8</f>
-        <v>20341.625694911643</v>
+        <v>20470.503856045358</v>
       </c>
       <c r="O2" s="9">
         <f>Calculations_India!O12-Calculations_India!O8</f>
-        <v>21614.951043963349</v>
+        <v>21674.144952973555</v>
       </c>
       <c r="P2" s="9">
         <f>Calculations_India!P12-Calculations_India!P8</f>
-        <v>23029.569870681906</v>
+        <v>23010.41374468528</v>
       </c>
       <c r="Q2" s="9">
         <f>Calculations_India!Q12-Calculations_India!Q8</f>
-        <v>24531.073933268723</v>
+        <v>24423.364650370568</v>
       </c>
       <c r="R2" s="9">
         <f>Calculations_India!R12-Calculations_India!R8</f>
-        <v>26124.960691805692</v>
+        <v>25917.577724389834</v>
       </c>
       <c r="S2" s="9">
         <f>Calculations_India!S12-Calculations_India!S8</f>
-        <v>27817.057036858336</v>
+        <v>27497.887024613134</v>
       </c>
       <c r="T2" s="9">
         <f>Calculations_India!T12-Calculations_India!T8</f>
-        <v>29613.540995562937</v>
+        <v>29169.396835247488</v>
       </c>
       <c r="U2" s="9">
         <f>Calculations_India!U12-Calculations_India!U8</f>
-        <v>31520.964570848206</v>
+        <v>30937.498599854567</v>
       </c>
       <c r="V2" s="9">
         <f>Calculations_India!V12-Calculations_India!V8</f>
-        <v>33470.023244884986</v>
+        <v>32732.932502737131</v>
       </c>
       <c r="W2" s="9">
         <f>Calculations_India!W12-Calculations_India!W8</f>
-        <v>35617.944471136543</v>
+        <v>34709.2982911574</v>
       </c>
       <c r="X2" s="9">
         <f>Calculations_India!X12-Calculations_India!X8</f>
-        <v>37898.808713931772</v>
+        <v>36800.212036855235</v>
       </c>
       <c r="Y2" s="9">
         <f>Calculations_India!Y12-Calculations_India!Y8</f>
-        <v>40236.253915487679</v>
+        <v>38930.069044153905</v>
       </c>
       <c r="Z2" s="9">
         <f>Calculations_India!Z12-Calculations_India!Z8</f>
-        <v>42805.296060122666</v>
+        <v>41267.914047986349</v>
       </c>
       <c r="AA2" s="9">
         <f>Calculations_India!AA12-Calculations_India!AA8</f>
-        <v>45442.529681188615</v>
+        <v>43653.618195429794</v>
       </c>
       <c r="AB2" s="9">
         <f>Calculations_India!AB12-Calculations_India!AB8</f>
-        <v>48237.245256581722</v>
+        <v>46172.431965306096</v>
       </c>
       <c r="AC2" s="9">
         <f>Calculations_India!AC12-Calculations_India!AC8</f>
-        <v>51203.835839861495</v>
+        <v>48836.581289704263</v>
       </c>
       <c r="AD2" s="9">
         <f>Calculations_India!AD12-Calculations_India!AD8</f>
-        <v>54352.871744012984</v>
+        <v>51654.452030120199</v>
       </c>
       <c r="AE2" s="9">
         <f>Calculations_India!AE12-Calculations_India!AE8</f>
-        <v>57695.573356269786</v>
+        <v>54634.913912258133</v>
       </c>
       <c r="AF2" s="9">
         <f>Calculations_India!AF12-Calculations_India!AF8</f>
-        <v>61243.85111768038</v>
+        <v>57787.348444995441</v>
       </c>
       <c r="AG2" s="9">
         <f>Calculations_India!AG12-Calculations_India!AG8</f>
-        <v>65010.347961417727</v>
+        <v>61121.678450271669</v>
       </c>
       <c r="AH2" s="9">
         <f>Calculations_India!AH12-Calculations_India!AH8</f>
-        <v>69008.484361044932</v>
+        <v>64648.399296852367</v>
       </c>
       <c r="AI2" s="9">
         <f>Calculations_India!AI12-Calculations_India!AI8</f>
-        <v>73252.50614924921</v>
+        <v>68378.611936280751</v>
       </c>
       <c r="AJ2" s="9">
         <f>Calculations_India!AJ12-Calculations_India!AJ8</f>
-        <v>77757.535277428047</v>
+        <v>72324.057845004165</v>
       </c>
       <c r="AK2" s="9">
         <f>Calculations_India!AK12-Calculations_India!AK8</f>
-        <v>82539.623696989875</v>
+        <v>76497.155982660915</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F77E3E-B479-4A2E-A5CE-263FFD35CEAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations_India" sheetId="6" r:id="rId2"/>
-    <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
-    <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
+    <sheet name="Revised Calcs_India" sheetId="7" r:id="rId2"/>
+    <sheet name="2019 DR capacity" sheetId="6" r:id="rId3"/>
+    <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
+    <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Year</t>
   </si>
@@ -73,9 +75,6 @@
   </si>
   <si>
     <t>DR capacity</t>
-  </si>
-  <si>
-    <t>Potential</t>
   </si>
   <si>
     <t>Source:CEA</t>
@@ -182,9 +181,6 @@
     <t>Page 21</t>
   </si>
   <si>
-    <t>Trends for BAU DR capacity</t>
-  </si>
-  <si>
     <t>Central electricity Authority</t>
   </si>
   <si>
@@ -197,9 +193,6 @@
     <t>Demand (TPDDL study)</t>
   </si>
   <si>
-    <t>Trends for peak electricity demand</t>
-  </si>
-  <si>
     <t>Electricity consumption across sectors</t>
   </si>
   <si>
@@ -212,42 +205,15 @@
     <t>Ministry of Statistics and Programme Implementation</t>
   </si>
   <si>
-    <t>Demand response  by consumer categories</t>
-  </si>
-  <si>
     <t>Table 6.9</t>
   </si>
   <si>
     <t>https://gig.lbl.gov/sites/default/files/lbnl_6987e_0.pdf</t>
   </si>
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Estimation of Potential and Value of Demand Response for Industrial and Commercial Consumers in Delhi</t>
-  </si>
-  <si>
-    <t>Lawrence Berkley National Laboratory</t>
-  </si>
-  <si>
     <t>Tata Power Delhi Distribution Limited (TPDDL)</t>
   </si>
   <si>
-    <t>A case study of the TPDDL was used to estimate the BAU projections of DR capacity (based on the percentage reduction in peak demand in the TPDDL study).</t>
-  </si>
-  <si>
-    <t>An LBNL report referring to the TPDDL pilot program was used to estimate the DR potential of the industry and commercial sector as a weighted average of the DR potentials across sub-sectors highlighted by the study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This was multiplied by the peak demand projections provided by CEA as well as the percentage of demand from industrial and commercial sectors in total electricity demand   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is assumed that DR potential in domestic/residential sectors is minimal, and hence is ignored. </t>
-  </si>
-  <si>
-    <t>That was scaled as per the peak demand projections of CEA for the country</t>
-  </si>
-  <si>
     <t>Potential of DR across consumer categories (weighted average)</t>
   </si>
   <si>
@@ -291,17 +257,94 @@
   </si>
   <si>
     <t>periods in response to time-based rates or other financial incentives.</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Peak Power Demand after Storage and DR[summer] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Peak Power Demand after Storage and DR[winter] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>CPI Potentials (GW) (2030)</t>
+  </si>
+  <si>
+    <t>(for ~600 GW peak load)</t>
+  </si>
+  <si>
+    <t>https://www.climatepolicyinitiative.org/wp-content/uploads/2020/08/CPI-India-flexibility-25-August-2020-full-report-1.pdf</t>
+  </si>
+  <si>
+    <t>Trends for BAU DR capacity till 2019</t>
+  </si>
+  <si>
+    <t>Trends for peak electricity demand till 2019</t>
+  </si>
+  <si>
+    <t>Climate Policy Initiative</t>
+  </si>
+  <si>
+    <t>Developing a roadmap to a flexible, low‐carbon Indian electricity system</t>
+  </si>
+  <si>
+    <t>Figure 3.4</t>
+  </si>
+  <si>
+    <t>Estimated 
+Base</t>
+  </si>
+  <si>
+    <t>CPI-Mid Range
+Potential</t>
+  </si>
+  <si>
+    <t>Mid*</t>
+  </si>
+  <si>
+    <t>Source: CPI Report, Figure 3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* EPS peak is ~400 GW in 2030, so we assume the mid range estimate of CPI </t>
+  </si>
+  <si>
+    <t>which is against a higher (~600 GW) peak in 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A case study of the TPDDL, CEA peak demand projections, and the percentage of demand from industrial and commercial sectors </t>
+  </si>
+  <si>
+    <t>in total electricity demand  were used to estimate the 2019 base year DR capacity (based on the percentage reduction in peak demand in the TPDDL study).</t>
+  </si>
+  <si>
+    <t>Between 2030 and 2050, the rest of the potential is scaled by growth in peak demand (EPS output).</t>
+  </si>
+  <si>
+    <t>Demand response potential in 2030 by end-uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An estimate from a CPI report was used for the 2030 potential DR capacity, and the potential between 2019 and 2030 was scaled linearly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was scaled for future BAU projections as per the growth in peak demand output of EPS. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,8 +410,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -567,7 +624,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +675,7 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,6 +715,17 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -706,16 +774,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>51646</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>347710</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481086</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82FCC8B-629D-4FFE-B3B6-2F3A59A9CC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219949" y="2371725"/>
+          <a:ext cx="4976887" cy="2834147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681832</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2430</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -744,8 +861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7642225" y="3861646"/>
-          <a:ext cx="11562604" cy="8285904"/>
+          <a:off x="8539957" y="1932834"/>
+          <a:ext cx="11560223" cy="8285904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,13 +875,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -807,15 +924,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>181519</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>719137</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -838,8 +955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3800474"/>
-          <a:ext cx="7572375" cy="4001045"/>
+          <a:off x="71437" y="3359944"/>
+          <a:ext cx="7565231" cy="4001045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,23 +1044,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -979,23 +1079,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,247 +1254,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="7" max="7" width="51.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>76</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>77</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>59</v>
-      </c>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="6"/>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>60</v>
-      </c>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="6"/>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
-      </c>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="6"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1424,31 +1495,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="63.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>2030</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="53">
+        <v>40</v>
+      </c>
+      <c r="J2" s="53">
+        <v>90</v>
+      </c>
+      <c r="K2" s="53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <f>'2019 DR capacity'!F8</f>
+        <v>922.18845458994383</v>
+      </c>
+      <c r="C3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="G4" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="G5" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+      <c r="G7">
+        <v>2024</v>
+      </c>
+      <c r="H7">
+        <v>2025</v>
+      </c>
+      <c r="I7">
+        <v>2026</v>
+      </c>
+      <c r="J7">
+        <v>2027</v>
+      </c>
+      <c r="K7">
+        <v>2028</v>
+      </c>
+      <c r="L7">
+        <v>2029</v>
+      </c>
+      <c r="M7">
+        <v>2030</v>
+      </c>
+      <c r="N7">
+        <v>2031</v>
+      </c>
+      <c r="O7">
+        <v>2032</v>
+      </c>
+      <c r="P7">
+        <v>2033</v>
+      </c>
+      <c r="Q7">
+        <v>2034</v>
+      </c>
+      <c r="R7">
+        <v>2035</v>
+      </c>
+      <c r="S7">
+        <v>2036</v>
+      </c>
+      <c r="T7">
+        <v>2037</v>
+      </c>
+      <c r="U7">
+        <v>2038</v>
+      </c>
+      <c r="V7">
+        <v>2039</v>
+      </c>
+      <c r="W7">
+        <v>2040</v>
+      </c>
+      <c r="X7">
+        <v>2041</v>
+      </c>
+      <c r="Y7">
+        <v>2042</v>
+      </c>
+      <c r="Z7">
+        <v>2043</v>
+      </c>
+      <c r="AA7">
+        <v>2044</v>
+      </c>
+      <c r="AB7">
+        <v>2045</v>
+      </c>
+      <c r="AC7">
+        <v>2046</v>
+      </c>
+      <c r="AD7">
+        <v>2047</v>
+      </c>
+      <c r="AE7">
+        <v>2048</v>
+      </c>
+      <c r="AF7">
+        <v>2049</v>
+      </c>
+      <c r="AG7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>262201</v>
+      </c>
+      <c r="C8">
+        <v>266686</v>
+      </c>
+      <c r="D8">
+        <v>284656</v>
+      </c>
+      <c r="E8">
+        <v>301356</v>
+      </c>
+      <c r="F8">
+        <v>320951</v>
+      </c>
+      <c r="G8">
+        <v>335265</v>
+      </c>
+      <c r="H8">
+        <v>348114</v>
+      </c>
+      <c r="I8">
+        <v>359564</v>
+      </c>
+      <c r="J8">
+        <v>370152</v>
+      </c>
+      <c r="K8">
+        <v>386031</v>
+      </c>
+      <c r="L8">
+        <v>400290</v>
+      </c>
+      <c r="M8">
+        <v>412327</v>
+      </c>
+      <c r="N8">
+        <v>430699</v>
+      </c>
+      <c r="O8">
+        <v>446727</v>
+      </c>
+      <c r="P8">
+        <v>463696</v>
+      </c>
+      <c r="Q8">
+        <v>478596</v>
+      </c>
+      <c r="R8">
+        <v>492010</v>
+      </c>
+      <c r="S8">
+        <v>503064</v>
+      </c>
+      <c r="T8">
+        <v>514062</v>
+      </c>
+      <c r="U8">
+        <v>523941</v>
+      </c>
+      <c r="V8">
+        <v>532239</v>
+      </c>
+      <c r="W8">
+        <v>536631</v>
+      </c>
+      <c r="X8">
+        <v>537666</v>
+      </c>
+      <c r="Y8">
+        <v>536933</v>
+      </c>
+      <c r="Z8">
+        <v>526591</v>
+      </c>
+      <c r="AA8">
+        <v>515628</v>
+      </c>
+      <c r="AB8">
+        <v>502008</v>
+      </c>
+      <c r="AC8">
+        <v>480978</v>
+      </c>
+      <c r="AD8">
+        <v>462694</v>
+      </c>
+      <c r="AE8">
+        <v>437808</v>
+      </c>
+      <c r="AF8">
+        <v>410966</v>
+      </c>
+      <c r="AG8">
+        <v>380395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>173800</v>
+      </c>
+      <c r="C9">
+        <v>171183</v>
+      </c>
+      <c r="D9">
+        <v>179976</v>
+      </c>
+      <c r="E9">
+        <v>190340</v>
+      </c>
+      <c r="F9">
+        <v>200057</v>
+      </c>
+      <c r="G9">
+        <v>207445</v>
+      </c>
+      <c r="H9">
+        <v>214344</v>
+      </c>
+      <c r="I9">
+        <v>220464</v>
+      </c>
+      <c r="J9">
+        <v>226506</v>
+      </c>
+      <c r="K9">
+        <v>230307</v>
+      </c>
+      <c r="L9">
+        <v>233659</v>
+      </c>
+      <c r="M9">
+        <v>235732</v>
+      </c>
+      <c r="N9">
+        <v>244440</v>
+      </c>
+      <c r="O9">
+        <v>253558</v>
+      </c>
+      <c r="P9">
+        <v>261443</v>
+      </c>
+      <c r="Q9">
+        <v>268575</v>
+      </c>
+      <c r="R9">
+        <v>275152</v>
+      </c>
+      <c r="S9">
+        <v>281129</v>
+      </c>
+      <c r="T9">
+        <v>286490</v>
+      </c>
+      <c r="U9">
+        <v>292265</v>
+      </c>
+      <c r="V9">
+        <v>297605</v>
+      </c>
+      <c r="W9">
+        <v>300694</v>
+      </c>
+      <c r="X9">
+        <v>301757</v>
+      </c>
+      <c r="Y9">
+        <v>302059</v>
+      </c>
+      <c r="Z9">
+        <v>297336</v>
+      </c>
+      <c r="AA9">
+        <v>290606</v>
+      </c>
+      <c r="AB9">
+        <v>283666</v>
+      </c>
+      <c r="AC9">
+        <v>273523</v>
+      </c>
+      <c r="AD9">
+        <v>263033</v>
+      </c>
+      <c r="AE9">
+        <v>250773</v>
+      </c>
+      <c r="AF9">
+        <v>236428</v>
+      </c>
+      <c r="AG9">
+        <v>220010</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G27" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.265625" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1467,103 +1933,10 @@
       <c r="F3">
         <v>2019</v>
       </c>
-      <c r="G3">
-        <v>2020</v>
-      </c>
-      <c r="H3">
-        <v>2021</v>
-      </c>
-      <c r="I3">
-        <v>2022</v>
-      </c>
-      <c r="J3">
-        <v>2023</v>
-      </c>
-      <c r="K3">
-        <v>2024</v>
-      </c>
-      <c r="L3">
-        <v>2025</v>
-      </c>
-      <c r="M3">
-        <v>2026</v>
-      </c>
-      <c r="N3">
-        <v>2027</v>
-      </c>
-      <c r="O3">
-        <v>2028</v>
-      </c>
-      <c r="P3">
-        <v>2029</v>
-      </c>
-      <c r="Q3">
-        <v>2030</v>
-      </c>
-      <c r="R3">
-        <v>2031</v>
-      </c>
-      <c r="S3">
-        <v>2032</v>
-      </c>
-      <c r="T3">
-        <v>2033</v>
-      </c>
-      <c r="U3">
-        <v>2034</v>
-      </c>
-      <c r="V3">
-        <v>2035</v>
-      </c>
-      <c r="W3">
-        <v>2036</v>
-      </c>
-      <c r="X3">
-        <v>2037</v>
-      </c>
-      <c r="Y3">
-        <v>2038</v>
-      </c>
-      <c r="Z3">
-        <v>2039</v>
-      </c>
-      <c r="AA3">
-        <v>2040</v>
-      </c>
-      <c r="AB3">
-        <v>2041</v>
-      </c>
-      <c r="AC3">
-        <v>2042</v>
-      </c>
-      <c r="AD3">
-        <v>2043</v>
-      </c>
-      <c r="AE3">
-        <v>2044</v>
-      </c>
-      <c r="AF3">
-        <v>2045</v>
-      </c>
-      <c r="AG3">
-        <v>2046</v>
-      </c>
-      <c r="AH3">
-        <v>2047</v>
-      </c>
-      <c r="AI3">
-        <v>2048</v>
-      </c>
-      <c r="AJ3">
-        <v>2049</v>
-      </c>
-      <c r="AK3">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1580,73 +1953,10 @@
       <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>37</v>
-      </c>
-      <c r="L4">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>42</v>
-      </c>
-      <c r="N4">
-        <v>42</v>
-      </c>
-      <c r="O4">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>43</v>
-      </c>
-      <c r="P4">
-        <v>43</v>
-      </c>
-      <c r="Q4">
-        <v>43</v>
-      </c>
-      <c r="R4">
-        <v>43</v>
-      </c>
-      <c r="S4">
-        <v>43</v>
-      </c>
-      <c r="T4">
-        <v>43</v>
-      </c>
-      <c r="U4">
-        <v>43</v>
-      </c>
-      <c r="V4">
-        <v>44</v>
-      </c>
-      <c r="W4">
-        <v>44</v>
-      </c>
-      <c r="X4">
-        <v>44</v>
-      </c>
-      <c r="Y4">
-        <v>45</v>
-      </c>
-      <c r="Z4">
-        <v>45</v>
-      </c>
-      <c r="AA4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
       </c>
       <c r="B5">
         <v>1766</v>
@@ -1663,71 +1973,8 @@
       <c r="F5">
         <v>2142</v>
       </c>
-      <c r="G5">
-        <v>2236</v>
-      </c>
-      <c r="H5">
-        <v>2330</v>
-      </c>
-      <c r="I5">
-        <v>2424</v>
-      </c>
-      <c r="J5">
-        <v>2518</v>
-      </c>
-      <c r="K5">
-        <v>2612</v>
-      </c>
-      <c r="L5">
-        <v>2706</v>
-      </c>
-      <c r="M5">
-        <v>2800</v>
-      </c>
-      <c r="N5">
-        <v>2894</v>
-      </c>
-      <c r="O5">
-        <v>2988</v>
-      </c>
-      <c r="P5">
-        <v>3082</v>
-      </c>
-      <c r="Q5">
-        <v>3176</v>
-      </c>
-      <c r="R5">
-        <v>3270</v>
-      </c>
-      <c r="S5">
-        <v>3364</v>
-      </c>
-      <c r="T5">
-        <v>3458</v>
-      </c>
-      <c r="U5">
-        <v>3552</v>
-      </c>
-      <c r="V5">
-        <v>3646</v>
-      </c>
-      <c r="W5">
-        <v>3740</v>
-      </c>
-      <c r="X5">
-        <v>3834</v>
-      </c>
-      <c r="Y5">
-        <v>3928</v>
-      </c>
-      <c r="Z5">
-        <v>4022</v>
-      </c>
-      <c r="AA5">
-        <v>4116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1736,7 +1983,7 @@
         <v>0.28312570781426954</v>
       </c>
       <c r="C6" s="12">
-        <f t="shared" ref="C6:AA6" si="0">C4/C5*100</f>
+        <f t="shared" ref="C6:F6" si="0">C4/C5*100</f>
         <v>0.26881720430107531</v>
       </c>
       <c r="D6" s="12">
@@ -1751,132 +1998,39 @@
         <f t="shared" si="0"/>
         <v>0.93370681605975725</v>
       </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1180679785330949</v>
-      </c>
-      <c r="H6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.201716738197425</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.278877887788779</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3502779984114377</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4165390505359876</v>
-      </c>
-      <c r="L6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5521064301552108</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4512785072563925</v>
-      </c>
-      <c r="O6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.4390896921017404</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3951979234263465</v>
-      </c>
-      <c r="Q6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3539042821158691</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3149847094801224</v>
-      </c>
-      <c r="S6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2782401902497027</v>
-      </c>
-      <c r="T6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2434933487565067</v>
-      </c>
-      <c r="U6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2105855855855856</v>
-      </c>
-      <c r="V6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2068019747668679</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="X6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1476264997391759</v>
-      </c>
-      <c r="Y6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.145621181262729</v>
-      </c>
-      <c r="Z6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1188463451019393</v>
-      </c>
-      <c r="AA6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AB6" s="12">
-        <f>AA6</f>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AC6" s="12">
-        <f t="shared" ref="AC6:AK6" si="1">AB6</f>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AD6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AE6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AF6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AG6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AH6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AI6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AJ6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-      <c r="AK6" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1175898931000972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1898,279 +2052,93 @@
         <f>E7*(1+$B$9/100)</f>
         <v>197587.33515607243</v>
       </c>
-      <c r="G7" s="13">
-        <f>F7*(1+$B$9/100)</f>
-        <v>211181.34381481021</v>
-      </c>
-      <c r="H7">
-        <v>244753</v>
-      </c>
-      <c r="I7" s="13">
-        <f>H7*(1+$B$10/100)</f>
-        <v>258875.24810000003</v>
-      </c>
-      <c r="J7" s="13">
-        <f>I7*(1+$B$10/100)</f>
-        <v>273812.34991537005</v>
-      </c>
-      <c r="K7" s="13">
-        <f>J7*(1+$B$10/100)</f>
-        <v>289611.32250548695</v>
-      </c>
-      <c r="L7" s="13">
-        <f>K7*(1+$B$10/100)</f>
-        <v>306321.8958140536</v>
-      </c>
-      <c r="M7">
-        <v>329998</v>
-      </c>
-      <c r="N7" s="13">
-        <f>M7*(1+$B$10/100)</f>
-        <v>349038.88460000005</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" ref="O7:AK7" si="2">N7*(1+$B$10/100)</f>
-        <v>369178.42824142007</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="2"/>
-        <v>390480.02355095005</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="2"/>
-        <v>413010.7209098399</v>
-      </c>
-      <c r="R7" s="13">
-        <f t="shared" si="2"/>
-        <v>436841.43950633769</v>
-      </c>
-      <c r="S7" s="13">
-        <f t="shared" si="2"/>
-        <v>462047.19056585338</v>
-      </c>
-      <c r="T7" s="13">
-        <f t="shared" si="2"/>
-        <v>488707.31346150313</v>
-      </c>
-      <c r="U7" s="13">
-        <f t="shared" si="2"/>
-        <v>516905.72544823191</v>
-      </c>
-      <c r="V7" s="13">
-        <f t="shared" si="2"/>
-        <v>546731.18580659491</v>
-      </c>
-      <c r="W7" s="13">
-        <f t="shared" si="2"/>
-        <v>578277.57522763545</v>
-      </c>
-      <c r="X7" s="13">
-        <f t="shared" si="2"/>
-        <v>611644.19131827005</v>
-      </c>
-      <c r="Y7" s="13">
-        <f t="shared" si="2"/>
-        <v>646936.06115733425</v>
-      </c>
-      <c r="Z7" s="13">
-        <f t="shared" si="2"/>
-        <v>684264.27188611252</v>
-      </c>
-      <c r="AA7" s="13">
-        <f t="shared" si="2"/>
-        <v>723746.32037394121</v>
-      </c>
-      <c r="AB7" s="13">
-        <f t="shared" si="2"/>
-        <v>765506.48305951769</v>
-      </c>
-      <c r="AC7" s="13">
-        <f t="shared" si="2"/>
-        <v>809676.20713205193</v>
-      </c>
-      <c r="AD7" s="13">
-        <f t="shared" si="2"/>
-        <v>856394.5242835714</v>
-      </c>
-      <c r="AE7" s="13">
-        <f t="shared" si="2"/>
-        <v>905808.48833473353</v>
-      </c>
-      <c r="AF7" s="13">
-        <f t="shared" si="2"/>
-        <v>958073.63811164768</v>
-      </c>
-      <c r="AG7" s="13">
-        <f t="shared" si="2"/>
-        <v>1013354.4870306898</v>
-      </c>
-      <c r="AH7" s="13">
-        <f t="shared" si="2"/>
-        <v>1071825.0409323608</v>
-      </c>
-      <c r="AI7" s="13">
-        <f t="shared" si="2"/>
-        <v>1133669.3457941581</v>
-      </c>
-      <c r="AJ7" s="13">
-        <f t="shared" si="2"/>
-        <v>1199082.0670464812</v>
-      </c>
-      <c r="AK7" s="13">
-        <f t="shared" si="2"/>
-        <v>1268269.1023150634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" ref="B8:AK8" si="3">B7*B6*$C$17/10000</f>
+        <f>B7*B6*$C$15/10000</f>
         <v>217.04932691473061</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C8:E8" si="1">C7*C6*$C$15/10000</f>
         <v>217.45874449471464</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>530.97362379816002</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>676.8212928537813</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="3"/>
+      <c r="F8" s="49">
+        <f>F7*F6*$C$15/10000</f>
         <v>922.18845458994383</v>
       </c>
-      <c r="G8" s="9">
-        <f t="shared" si="3"/>
-        <v>1180.2494484622082</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="3"/>
-        <v>1470.2127396666774</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="3"/>
-        <v>1654.8919905861546</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="3"/>
-        <v>1848.1034226323541</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="3"/>
-        <v>2050.6622461192237</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="3"/>
-        <v>2376.5643979719566</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="3"/>
-        <v>2474.3014772728775</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="3"/>
-        <v>2532.0636776199945</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="3"/>
-        <v>2655.6707273842894</v>
-      </c>
-      <c r="P8" s="9">
-        <f t="shared" si="3"/>
-        <v>2723.2323004292134</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="3"/>
-        <v>2795.1127715470357</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="3"/>
-        <v>2871.4058447724133</v>
-      </c>
-      <c r="S8" s="9">
-        <f t="shared" si="3"/>
-        <v>2952.2208964897754</v>
-      </c>
-      <c r="T8" s="9">
-        <f t="shared" si="3"/>
-        <v>3037.6823129030599</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" si="3"/>
-        <v>3127.9290151442751</v>
-      </c>
-      <c r="V8" s="9">
-        <f t="shared" si="3"/>
-        <v>3298.0702856471398</v>
-      </c>
-      <c r="W8" s="9">
-        <f t="shared" si="3"/>
-        <v>3400.6933581166468</v>
-      </c>
-      <c r="X8" s="9">
-        <f t="shared" si="3"/>
-        <v>3508.7261305819297</v>
-      </c>
-      <c r="Y8" s="9">
-        <f t="shared" si="3"/>
-        <v>3704.6948555443832</v>
-      </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="3"/>
-        <v>3826.8757287245421</v>
-      </c>
-      <c r="AA8" s="9">
-        <f t="shared" si="3"/>
-        <v>4043.1409513973103</v>
-      </c>
-      <c r="AB8" s="9">
-        <f t="shared" si="3"/>
-        <v>4276.4301842929344</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="3"/>
-        <v>4523.1802059266374</v>
-      </c>
-      <c r="AD8" s="9">
-        <f t="shared" si="3"/>
-        <v>4784.1677038086045</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" si="3"/>
-        <v>5060.2141803183622</v>
-      </c>
-      <c r="AF8" s="9">
-        <f t="shared" si="3"/>
-        <v>5352.1885385227324</v>
-      </c>
-      <c r="AG8" s="9">
-        <f t="shared" si="3"/>
-        <v>5661.0098171954942</v>
-      </c>
-      <c r="AH8" s="9">
-        <f t="shared" si="3"/>
-        <v>5987.6500836476744</v>
-      </c>
-      <c r="AI8" s="9">
-        <f t="shared" si="3"/>
-        <v>6333.1374934741461</v>
-      </c>
-      <c r="AJ8" s="9">
-        <f t="shared" si="3"/>
-        <v>6698.5595268476054</v>
-      </c>
-      <c r="AK8" s="9">
-        <f t="shared" si="3"/>
-        <v>7085.0664115467134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2146,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2186,159 +2154,56 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <f t="shared" ref="B12:AK12" si="4">$C$19*B7/100</f>
-        <v>10107.217069556609</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" si="4"/>
-        <v>10665.280226612314</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="4"/>
-        <v>11399.051506203241</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="4"/>
-        <v>12183.306249830024</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="4"/>
-        <v>13021.51771981833</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="4"/>
-        <v>13917.398138941831</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="4"/>
-        <v>16129.857330993758</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="4"/>
-        <v>17060.550098992102</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="4"/>
-        <v>18044.943839703948</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" si="4"/>
-        <v>19086.137099254865</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="4"/>
-        <v>20187.407209881876</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="4"/>
-        <v>21747.723866564571</v>
-      </c>
-      <c r="N12" s="9">
-        <f t="shared" si="4"/>
-        <v>23002.567533665351</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="4"/>
-        <v>24329.815680357842</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" si="4"/>
-        <v>25733.646045114492</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="4"/>
-        <v>27218.477421917603</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" si="4"/>
-        <v>28788.983569162247</v>
-      </c>
-      <c r="S12" s="9">
-        <f t="shared" si="4"/>
-        <v>30450.10792110291</v>
-      </c>
-      <c r="T12" s="9">
-        <f t="shared" si="4"/>
-        <v>32207.079148150548</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="shared" si="4"/>
-        <v>34065.427614998844</v>
-      </c>
-      <c r="V12" s="9">
-        <f t="shared" si="4"/>
-        <v>36031.00278838427</v>
-      </c>
-      <c r="W12" s="9">
-        <f t="shared" si="4"/>
-        <v>38109.991649274045</v>
-      </c>
-      <c r="X12" s="9">
-        <f t="shared" si="4"/>
-        <v>40308.938167437162</v>
-      </c>
-      <c r="Y12" s="9">
-        <f t="shared" si="4"/>
-        <v>42634.763899698286</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="4"/>
-        <v>45094.789776710888</v>
-      </c>
-      <c r="AA12" s="9">
-        <f t="shared" si="4"/>
-        <v>47696.759146827106</v>
-      </c>
-      <c r="AB12" s="9">
-        <f t="shared" si="4"/>
-        <v>50448.86214959903</v>
-      </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="4"/>
-        <v>53359.761495630897</v>
-      </c>
-      <c r="AD12" s="9">
-        <f t="shared" si="4"/>
-        <v>56438.619733928805</v>
-      </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="4"/>
-        <v>59695.128092576495</v>
-      </c>
-      <c r="AF12" s="9">
-        <f t="shared" si="4"/>
-        <v>63139.53698351817</v>
-      </c>
-      <c r="AG12" s="9">
-        <f t="shared" si="4"/>
-        <v>66782.688267467165</v>
-      </c>
-      <c r="AH12" s="9">
-        <f t="shared" si="4"/>
-        <v>70636.049380500044</v>
-      </c>
-      <c r="AI12" s="9">
-        <f t="shared" si="4"/>
-        <v>74711.749429754898</v>
-      </c>
-      <c r="AJ12" s="9">
-        <f t="shared" si="4"/>
-        <v>79022.617371851768</v>
-      </c>
-      <c r="AK12" s="9">
-        <f t="shared" si="4"/>
-        <v>83582.222394207623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <f>18*620+14*430+15*1100+7*4600+2*1900+16*7300+14*2700+12*770+24*1000+16*1400+12*430+19*1900+28*170+14*2200+13*1000+15*560+26*60+920*15+8*2000</f>
+        <v>409500</v>
+      </c>
+      <c r="D13">
+        <f>C13/(620+430+1100+4600+1900+7300+2700+770+1000+1400+430+1900+170+2200+1000+560+60+920+2000)</f>
+        <v>13.184159690920799</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2373,10 +2238,7 @@
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2411,17 +2273,13 @@
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15">
-        <f>18*620+14*430+15*1100+7*4600+2*1900+16*7300+14*2700+12*770+24*1000+16*1400+12*430+19*1900+28*170+14*2200+13*1000+15*560+26*60+920*15+8*2000</f>
-        <v>409500</v>
-      </c>
-      <c r="D15">
-        <f>C15/(620+430+1100+4600+1900+7300+2700+770+1000+1400+430+1900+170+2200+1000+560+60+920+2000)</f>
-        <v>13.184159690920799</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="12">
+        <f>E93+H93</f>
+        <v>49.986191376369504</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2457,7 +2315,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2492,651 +2350,568 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="12">
-        <f>E95+H95</f>
-        <v>49.986191376369504</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="32">
-        <f>D15*(E95+H95)/100</f>
+        <v>41</v>
+      </c>
+      <c r="C17" s="32">
+        <f>D13*(E93+H93)/100</f>
         <v>6.5902592944698366</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <f>10/145*100</f>
-        <v>6.8965517241379306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K67" s="3" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K65" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B77" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="53" t="s">
+      <c r="F79" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="53" t="s">
+      <c r="G79" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="53" t="s">
+      <c r="H79" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="53" t="s">
+      <c r="I79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="J79" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J81" s="53" t="s">
+      <c r="K79" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K81" s="16" t="s">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" s="56"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="18" t="s">
+      <c r="J80" s="59"/>
+      <c r="K80" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="54"/>
-      <c r="K82" s="19" t="s">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" s="57"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="21" t="s">
+      <c r="J81" s="60"/>
+      <c r="K81" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="22" t="s">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82" s="23">
+        <v>1</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="34">
+        <v>2</v>
+      </c>
+      <c r="F82" s="34">
+        <v>3</v>
+      </c>
+      <c r="G82" s="34">
+        <v>4</v>
+      </c>
+      <c r="H82" s="34">
+        <v>5</v>
+      </c>
+      <c r="I82" s="34">
+        <v>6</v>
+      </c>
+      <c r="J82" s="34">
+        <v>7</v>
+      </c>
+      <c r="K82" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>1</v>
-      </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="34">
-        <v>2</v>
-      </c>
-      <c r="F84" s="34">
-        <v>3</v>
-      </c>
-      <c r="G84" s="34">
-        <v>4</v>
-      </c>
-      <c r="H84" s="34">
-        <v>5</v>
-      </c>
-      <c r="I84" s="34">
-        <v>6</v>
-      </c>
-      <c r="J84" s="34">
-        <v>7</v>
-      </c>
-      <c r="K84" s="35" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83" s="36" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="37">
+        <v>209474.12781608119</v>
+      </c>
+      <c r="F83" s="37">
+        <v>109609.77877866759</v>
+      </c>
+      <c r="G83" s="37">
+        <v>131719.81337273202</v>
+      </c>
+      <c r="H83" s="37">
+        <v>54189.190079562402</v>
+      </c>
+      <c r="I83" s="37">
+        <v>11424.783703703704</v>
+      </c>
+      <c r="J83" s="37">
+        <v>37577.019349878268</v>
+      </c>
+      <c r="K83" s="38">
+        <v>553995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="37">
+        <v>236752.19076651</v>
+      </c>
+      <c r="F84" s="37">
+        <v>120208.7574092943</v>
+      </c>
+      <c r="G84" s="37">
+        <v>146080.15510040961</v>
+      </c>
+      <c r="H84" s="37">
+        <v>60600.284304184614</v>
+      </c>
+      <c r="I84" s="37">
+        <v>12408.252614641995</v>
+      </c>
+      <c r="J84" s="37">
+        <v>36595.349224177386</v>
+      </c>
+      <c r="K84" s="37">
+        <v>612644.98941921792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="37">
-        <v>209474.12781608119</v>
+        <v>272589</v>
       </c>
       <c r="F85" s="37">
-        <v>109609.77877866759</v>
+        <v>131967</v>
       </c>
       <c r="G85" s="37">
-        <v>131719.81337273202</v>
+        <v>169326</v>
       </c>
       <c r="H85" s="37">
-        <v>54189.190079562402</v>
+        <v>67289</v>
       </c>
       <c r="I85" s="37">
-        <v>11424.783703703704</v>
+        <v>14003</v>
       </c>
       <c r="J85" s="37">
-        <v>37577.019349878268</v>
-      </c>
-      <c r="K85" s="38">
-        <v>553995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>29</v>
+        <v>39218</v>
+      </c>
+      <c r="K85" s="37">
+        <v>694392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A86" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="37">
-        <v>236752.19076651</v>
+        <v>352291</v>
       </c>
       <c r="F86" s="37">
-        <v>120208.7574092943</v>
+        <v>140960</v>
       </c>
       <c r="G86" s="37">
-        <v>146080.15510040961</v>
+        <v>171104</v>
       </c>
       <c r="H86" s="37">
-        <v>60600.284304184614</v>
+        <v>65381</v>
       </c>
       <c r="I86" s="37">
-        <v>12408.252614641995</v>
+        <v>14206</v>
       </c>
       <c r="J86" s="37">
-        <v>36595.349224177386</v>
+        <v>41252</v>
       </c>
       <c r="K86" s="37">
-        <v>612644.98941921792</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+        <v>785194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A87" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="37">
-        <v>272589</v>
+        <v>365988.99</v>
       </c>
       <c r="F87" s="37">
-        <v>131967</v>
+        <v>147462</v>
       </c>
       <c r="G87" s="37">
-        <v>169326</v>
+        <v>183700</v>
       </c>
       <c r="H87" s="37">
-        <v>67289</v>
+        <v>72794</v>
       </c>
       <c r="I87" s="37">
-        <v>14003</v>
+        <v>14100</v>
       </c>
       <c r="J87" s="37">
-        <v>39218</v>
+        <v>40256</v>
       </c>
       <c r="K87" s="37">
-        <v>694392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
+        <v>824300.99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A88" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="37">
-        <v>352291</v>
+        <v>384418.2794984277</v>
       </c>
       <c r="F88" s="37">
-        <v>140960</v>
+        <v>152744.32570698805</v>
       </c>
       <c r="G88" s="37">
-        <v>171104</v>
+        <v>199841.78628002029</v>
       </c>
       <c r="H88" s="37">
-        <v>65381</v>
+        <v>74246.963235908886</v>
       </c>
       <c r="I88" s="37">
-        <v>14206</v>
+        <v>15539.688867794344</v>
       </c>
       <c r="J88" s="37">
-        <v>41252</v>
+        <v>47417.52291086076</v>
       </c>
       <c r="K88" s="37">
-        <v>785194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+        <v>874208.56649999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A89" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="37">
-        <v>365988.99</v>
+        <v>418346.16624665877</v>
       </c>
       <c r="F89" s="37">
-        <v>147462</v>
+        <v>168913.45725601545</v>
       </c>
       <c r="G89" s="37">
-        <v>183700</v>
+        <v>217404.72234963675</v>
       </c>
       <c r="H89" s="37">
-        <v>72794</v>
+        <v>78391.386457368004</v>
       </c>
       <c r="I89" s="37">
-        <v>14100</v>
+        <v>16176.94</v>
       </c>
       <c r="J89" s="37">
-        <v>40256</v>
+        <v>49289</v>
       </c>
       <c r="K89" s="37">
-        <v>824300.99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>948521.67230967898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="37">
-        <v>384418.2794984277</v>
+        <v>423522.94024919398</v>
       </c>
       <c r="F90" s="37">
-        <v>152744.32570698805</v>
+        <v>173185.36546184841</v>
       </c>
       <c r="G90" s="37">
-        <v>199841.78628002029</v>
+        <v>238875.69057048182</v>
       </c>
       <c r="H90" s="37">
-        <v>74246.963235908886</v>
+        <v>86036.571008999075</v>
       </c>
       <c r="I90" s="37">
-        <v>15539.688867794344</v>
+        <v>16594.330000000002</v>
       </c>
       <c r="J90" s="37">
-        <v>47417.52291086076</v>
+        <v>62975.787018054529</v>
       </c>
       <c r="K90" s="37">
-        <v>874208.56649999996</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1001190.6843085778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="40" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="37">
-        <v>418346.16624665877</v>
+        <v>440205.5156759005</v>
       </c>
       <c r="F91" s="37">
-        <v>168913.45725601545</v>
+        <v>191150.88740685093</v>
       </c>
       <c r="G91" s="37">
-        <v>217404.72234963675</v>
+        <v>255826.00848008768</v>
       </c>
       <c r="H91" s="37">
-        <v>78391.386457368004</v>
+        <v>89824.931384403026</v>
       </c>
       <c r="I91" s="37">
-        <v>16176.94</v>
+        <v>15682.75</v>
       </c>
       <c r="J91" s="37">
-        <v>49289</v>
+        <v>68492.545322690057</v>
       </c>
       <c r="K91" s="37">
-        <v>948521.67230967898</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+        <v>1061182.6382699322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="42">
+        <v>468825.21119999996</v>
+      </c>
+      <c r="F92" s="43">
+        <v>204293.44575095654</v>
+      </c>
+      <c r="G92" s="37">
+        <v>273549.69270568853</v>
+      </c>
+      <c r="H92" s="37">
+        <v>96140.63643289663</v>
+      </c>
+      <c r="I92" s="37">
+        <v>14356</v>
+      </c>
+      <c r="J92" s="37">
+        <v>73078.851411506243</v>
+      </c>
+      <c r="K92" s="43">
+        <v>1130243.8375010479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A93" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="37">
-        <v>423522.94024919398</v>
-      </c>
-      <c r="F92" s="37">
-        <v>173185.36546184841</v>
-      </c>
-      <c r="G92" s="37">
-        <v>238875.69057048182</v>
-      </c>
-      <c r="H92" s="37">
-        <v>86036.571008999075</v>
-      </c>
-      <c r="I92" s="37">
-        <v>16594.330000000002</v>
-      </c>
-      <c r="J92" s="37">
-        <v>62975.787018054529</v>
-      </c>
-      <c r="K92" s="37">
-        <v>1001190.6843085778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="37">
-        <v>440205.5156759005</v>
-      </c>
-      <c r="F93" s="37">
-        <v>191150.88740685093</v>
-      </c>
-      <c r="G93" s="37">
-        <v>255826.00848008768</v>
-      </c>
-      <c r="H93" s="37">
-        <v>89824.931384403026</v>
-      </c>
-      <c r="I93" s="37">
-        <v>15682.75</v>
-      </c>
-      <c r="J93" s="37">
-        <v>68492.545322690057</v>
-      </c>
-      <c r="K93" s="37">
-        <v>1061182.6382699322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="42">
-        <v>468825.21119999996</v>
-      </c>
-      <c r="F94" s="43">
-        <v>204293.44575095654</v>
-      </c>
-      <c r="G94" s="37">
-        <v>273549.69270568853</v>
-      </c>
-      <c r="H94" s="37">
-        <v>96140.63643289663</v>
-      </c>
-      <c r="I94" s="37">
-        <v>14356</v>
-      </c>
-      <c r="J94" s="37">
-        <v>73078.851411506243</v>
-      </c>
-      <c r="K94" s="43">
-        <v>1130243.8375010479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="44">
+        <v>41.480005963718895</v>
+      </c>
+      <c r="F93" s="44">
+        <v>18.075165638827659</v>
+      </c>
+      <c r="G93" s="44">
+        <v>24.202714815105985</v>
+      </c>
+      <c r="H93" s="44">
+        <v>8.5061854126506127</v>
+      </c>
+      <c r="I93" s="44">
+        <v>1.270168394082192</v>
+      </c>
+      <c r="J93" s="44">
+        <v>6.4657597756146572</v>
+      </c>
+      <c r="K93" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A94" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="46">
+        <v>6.5014395560574005</v>
+      </c>
+      <c r="F94" s="46">
+        <v>6.8754890560003616</v>
+      </c>
+      <c r="G94" s="46">
+        <v>6.92802281163699</v>
+      </c>
+      <c r="H94" s="46">
+        <v>7.0311270503127226</v>
+      </c>
+      <c r="I94" s="46">
+        <v>-8.4599320909916962</v>
+      </c>
+      <c r="J94" s="46">
+        <v>6.6960660714368929</v>
+      </c>
+      <c r="K94" s="46">
+        <v>6.5079465815335542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="48">
+        <v>8.3897105964131811</v>
+      </c>
+      <c r="F95" s="48">
+        <v>6.4242291621283032</v>
+      </c>
+      <c r="G95" s="48">
+        <v>7.5817271884242254</v>
+      </c>
+      <c r="H95" s="48">
+        <v>5.9008469130015007</v>
+      </c>
+      <c r="I95" s="48">
+        <v>2.3101087504606044</v>
+      </c>
+      <c r="J95" s="48">
+        <v>6.8776604275098352</v>
+      </c>
+      <c r="K95" s="48">
+        <v>7.3906893769725812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A96" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="44">
-        <v>41.480005963718895</v>
-      </c>
-      <c r="F95" s="44">
-        <v>18.075165638827659</v>
-      </c>
-      <c r="G95" s="44">
-        <v>24.202714815105985</v>
-      </c>
-      <c r="H95" s="44">
-        <v>8.5061854126506127</v>
-      </c>
-      <c r="I95" s="44">
-        <v>1.270168394082192</v>
-      </c>
-      <c r="J95" s="44">
-        <v>6.4657597756146572</v>
-      </c>
-      <c r="K95" s="44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="46">
-        <v>6.5014395560574005</v>
-      </c>
-      <c r="F96" s="46">
-        <v>6.8754890560003616</v>
-      </c>
-      <c r="G96" s="46">
-        <v>6.92802281163699</v>
-      </c>
-      <c r="H96" s="46">
-        <v>7.0311270503127226</v>
-      </c>
-      <c r="I96" s="46">
-        <v>-8.4599320909916962</v>
-      </c>
-      <c r="J96" s="46">
-        <v>6.6960660714368929</v>
-      </c>
-      <c r="K96" s="46">
-        <v>6.5079465815335542</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="48">
-        <v>8.3897105964131811</v>
-      </c>
-      <c r="F97" s="48">
-        <v>6.4242291621283032</v>
-      </c>
-      <c r="G97" s="48">
-        <v>7.5817271884242254</v>
-      </c>
-      <c r="H97" s="48">
-        <v>5.9008469130015007</v>
-      </c>
-      <c r="I97" s="48">
-        <v>2.3101087504606044</v>
-      </c>
-      <c r="J97" s="48">
-        <v>6.8776604275098352</v>
-      </c>
-      <c r="K97" s="48">
-        <v>7.3906893769725812</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>75</v>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E80:L80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="E78:L78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="J79:J81"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K67" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B77" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A40" r:id="rId1"/>
+    <hyperlink ref="B75" r:id="rId2"/>
+    <hyperlink ref="K65" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3149,23 +2924,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="37" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,153 +3055,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations_India!B8</f>
+        <f>'2019 DR capacity'!B8</f>
         <v>217.04932691473061</v>
       </c>
       <c r="C2" s="9">
-        <f>Calculations_India!C8</f>
+        <f>'2019 DR capacity'!C8</f>
         <v>217.45874449471464</v>
       </c>
       <c r="D2" s="9">
-        <f>Calculations_India!D8</f>
+        <f>'2019 DR capacity'!D8</f>
         <v>530.97362379816002</v>
       </c>
       <c r="E2" s="9">
-        <f>Calculations_India!E8</f>
+        <f>'2019 DR capacity'!E8</f>
         <v>676.8212928537813</v>
       </c>
       <c r="F2" s="9">
-        <f>Calculations_India!F8</f>
+        <f>'2019 DR capacity'!F8</f>
         <v>922.18845458994383</v>
       </c>
       <c r="G2" s="9">
-        <f>Calculations_India!G8</f>
-        <v>1180.2494484622082</v>
+        <f>$F$2*('Revised Calcs_India'!C8/'Revised Calcs_India'!$B$8)</f>
+        <v>937.96267062587003</v>
       </c>
       <c r="H2" s="9">
-        <f>Calculations_India!H8</f>
-        <v>1470.2127396666774</v>
+        <f>$F$2*('Revised Calcs_India'!D8/'Revised Calcs_India'!$B$8)</f>
+        <v>1001.1650479203171</v>
       </c>
       <c r="I2" s="9">
-        <f>Calculations_India!I8</f>
-        <v>1654.8919905861546</v>
+        <f>$F$2*('Revised Calcs_India'!E8/'Revised Calcs_India'!$B$8)</f>
+        <v>1059.9007018333534</v>
       </c>
       <c r="J2" s="9">
-        <f>Calculations_India!J8</f>
-        <v>1848.1034226323541</v>
+        <f>$F$2*('Revised Calcs_India'!F8/'Revised Calcs_India'!$B$8)</f>
+        <v>1128.8183747929911</v>
       </c>
       <c r="K2" s="9">
-        <f>Calculations_India!K8</f>
-        <v>2050.6622461192237</v>
+        <f>$F$2*('Revised Calcs_India'!G8/'Revised Calcs_India'!$B$8)</f>
+        <v>1179.1622161170153</v>
       </c>
       <c r="L2" s="9">
-        <f>Calculations_India!L8</f>
-        <v>2376.5643979719566</v>
+        <f>$F$2*('Revised Calcs_India'!H8/'Revised Calcs_India'!$B$8)</f>
+        <v>1224.353498579806</v>
       </c>
       <c r="M2" s="9">
-        <f>Calculations_India!M8</f>
-        <v>2474.3014772728775</v>
+        <f>$F$2*('Revised Calcs_India'!I8/'Revised Calcs_India'!$B$8)</f>
+        <v>1264.6243511129956</v>
       </c>
       <c r="N2" s="9">
-        <f>Calculations_India!N8</f>
-        <v>2532.0636776199945</v>
+        <f>$F$2*('Revised Calcs_India'!J8/'Revised Calcs_India'!$B$8)</f>
+        <v>1301.8634591148657</v>
       </c>
       <c r="O2" s="9">
-        <f>Calculations_India!O8</f>
-        <v>2655.6707273842894</v>
+        <f>$F$2*('Revised Calcs_India'!K8/'Revised Calcs_India'!$B$8)</f>
+        <v>1357.7115698025964</v>
       </c>
       <c r="P2" s="9">
-        <f>Calculations_India!P8</f>
-        <v>2723.2323004292134</v>
+        <f>$F$2*('Revised Calcs_India'!L8/'Revised Calcs_India'!$B$8)</f>
+        <v>1407.8619703502604</v>
       </c>
       <c r="Q2" s="9">
-        <f>Calculations_India!Q8</f>
-        <v>2795.1127715470357</v>
+        <f>$F$2*('Revised Calcs_India'!M8/'Revised Calcs_India'!$B$8)</f>
+        <v>1450.1973635329682</v>
       </c>
       <c r="R2" s="9">
-        <f>Calculations_India!R8</f>
-        <v>2871.4058447724133</v>
+        <f>$F$2*('Revised Calcs_India'!N8/'Revised Calcs_India'!$B$8)</f>
+        <v>1514.8136170473576</v>
       </c>
       <c r="S2" s="9">
-        <f>Calculations_India!S8</f>
-        <v>2952.2208964897754</v>
+        <f>$F$2*('Revised Calcs_India'!O8/'Revised Calcs_India'!$B$8)</f>
+        <v>1571.1857763837736</v>
       </c>
       <c r="T2" s="9">
-        <f>Calculations_India!T8</f>
-        <v>3037.6823129030599</v>
+        <f>$F$2*('Revised Calcs_India'!P8/'Revised Calcs_India'!$B$8)</f>
+        <v>1630.8675315484631</v>
       </c>
       <c r="U2" s="9">
-        <f>Calculations_India!U8</f>
-        <v>3127.9290151442751</v>
+        <f>$F$2*('Revised Calcs_India'!Q8/'Revised Calcs_India'!$B$8)</f>
+        <v>1683.2723964169807</v>
       </c>
       <c r="V2" s="9">
-        <f>Calculations_India!V8</f>
-        <v>3298.0702856471398</v>
+        <f>$F$2*('Revised Calcs_India'!R8/'Revised Calcs_India'!$B$8)</f>
+        <v>1730.4508432187454</v>
       </c>
       <c r="W2" s="9">
-        <f>Calculations_India!W8</f>
-        <v>3400.6933581166468</v>
+        <f>$F$2*('Revised Calcs_India'!S8/'Revised Calcs_India'!$B$8)</f>
+        <v>1769.3289221621408</v>
       </c>
       <c r="X2" s="9">
-        <f>Calculations_India!X8</f>
-        <v>3508.7261305819297</v>
+        <f>$F$2*('Revised Calcs_India'!T8/'Revised Calcs_India'!$B$8)</f>
+        <v>1808.0100432241513</v>
       </c>
       <c r="Y2" s="9">
-        <f>Calculations_India!Y8</f>
-        <v>3704.6948555443832</v>
+        <f>$F$2*('Revised Calcs_India'!U8/'Revised Calcs_India'!$B$8)</f>
+        <v>1842.7555237634858</v>
       </c>
       <c r="Z2" s="9">
-        <f>Calculations_India!Z8</f>
-        <v>3826.8757287245421</v>
+        <f>$F$2*('Revised Calcs_India'!V8/'Revised Calcs_India'!$B$8)</f>
+        <v>1871.9404612587182</v>
       </c>
       <c r="AA2" s="9">
-        <f>Calculations_India!AA8</f>
-        <v>4043.1409513973103</v>
+        <f>$F$2*('Revised Calcs_India'!W8/'Revised Calcs_India'!$B$8)</f>
+        <v>1887.3875865273442</v>
       </c>
       <c r="AB2" s="9">
-        <f>Calculations_India!AB8</f>
-        <v>4276.4301842929344</v>
+        <f>$F$2*('Revised Calcs_India'!X8/'Revised Calcs_India'!$B$8)</f>
+        <v>1891.0277902279424</v>
       </c>
       <c r="AC2" s="9">
-        <f>Calculations_India!AC8</f>
-        <v>4523.1802059266374</v>
+        <f>$F$2*('Revised Calcs_India'!Y8/'Revised Calcs_India'!$B$8)</f>
+        <v>1888.4497522448135</v>
       </c>
       <c r="AD2" s="9">
-        <f>Calculations_India!AD8</f>
-        <v>4784.1677038086045</v>
+        <f>$F$2*('Revised Calcs_India'!Z8/'Revised Calcs_India'!$B$8)</f>
+        <v>1852.0758520790275</v>
       </c>
       <c r="AE2" s="9">
-        <f>Calculations_India!AE8</f>
-        <v>5060.2141803183622</v>
+        <f>$F$2*('Revised Calcs_India'!AA8/'Revised Calcs_India'!$B$8)</f>
+        <v>1813.5178296928827</v>
       </c>
       <c r="AF2" s="9">
-        <f>Calculations_India!AF8</f>
-        <v>5352.1885385227324</v>
+        <f>$F$2*('Revised Calcs_India'!AB8/'Revised Calcs_India'!$B$8)</f>
+        <v>1765.6148592560232</v>
       </c>
       <c r="AG2" s="9">
-        <f>Calculations_India!AG8</f>
-        <v>5661.0098171954942</v>
+        <f>$F$2*('Revised Calcs_India'!AC8/'Revised Calcs_India'!$B$8)</f>
+        <v>1691.6501405858942</v>
       </c>
       <c r="AH2" s="9">
-        <f>Calculations_India!AH8</f>
-        <v>5987.6500836476744</v>
+        <f>$F$2*('Revised Calcs_India'!AD8/'Revised Calcs_India'!$B$8)</f>
+        <v>1627.3433923136811</v>
       </c>
       <c r="AI2" s="9">
-        <f>Calculations_India!AI8</f>
-        <v>6333.1374934741461</v>
+        <f>$F$2*('Revised Calcs_India'!AE8/'Revised Calcs_India'!$B$8)</f>
+        <v>1539.8167166681826</v>
       </c>
       <c r="AJ2" s="9">
-        <f>Calculations_India!AJ8</f>
-        <v>6698.5595268476054</v>
+        <f>$F$2*('Revised Calcs_India'!AF8/'Revised Calcs_India'!$B$8)</f>
+        <v>1445.4105835943069</v>
       </c>
       <c r="AK2" s="9">
-        <f>Calculations_India!AK8</f>
-        <v>7085.0664115467134</v>
+        <f>$F$2*('Revised Calcs_India'!AG8/'Revised Calcs_India'!$B$8)</f>
+        <v>1337.8891658832028</v>
       </c>
     </row>
   </sheetData>
@@ -3437,23 +3214,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="8" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3566,153 +3347,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9">
-        <f>Calculations_India!B12-Calculations_India!B8</f>
-        <v>9890.1677426418792</v>
+        <v>0</v>
       </c>
       <c r="C2" s="9">
-        <f>Calculations_India!C12-Calculations_India!C8</f>
-        <v>10447.821482117601</v>
+        <v>0</v>
       </c>
       <c r="D2" s="9">
-        <f>Calculations_India!D12-Calculations_India!D8</f>
-        <v>10868.077882405081</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
-        <f>Calculations_India!E12-Calculations_India!E8</f>
-        <v>11506.484956976243</v>
-      </c>
-      <c r="F2" s="9">
-        <f>Calculations_India!F12-Calculations_India!F8</f>
-        <v>12099.329265228385</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
-        <f>Calculations_India!G12-Calculations_India!G8</f>
-        <v>12737.148690479624</v>
+        <f>FORECAST('DRC-PADRC'!G1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!G2</f>
+        <v>8082.2086517291773</v>
       </c>
       <c r="H2" s="9">
-        <f>Calculations_India!H12-Calculations_India!H8</f>
-        <v>14659.64459132708</v>
+        <f>FORECAST('DRC-PADRC'!H1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!H2</f>
+        <v>16116.98914219904</v>
       </c>
       <c r="I2" s="9">
-        <f>Calculations_India!I12-Calculations_India!I8</f>
-        <v>15405.658108405947</v>
+        <f>FORECAST('DRC-PADRC'!I1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!I2</f>
+        <v>24156.236356052174</v>
       </c>
       <c r="J2" s="9">
-        <f>Calculations_India!J12-Calculations_India!J8</f>
-        <v>16196.840417071595</v>
+        <f>FORECAST('DRC-PADRC'!J1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!J2</f>
+        <v>32185.301550856846</v>
       </c>
       <c r="K2" s="9">
-        <f>Calculations_India!K12-Calculations_India!K8</f>
-        <v>17035.474853135642</v>
+        <f>FORECAST('DRC-PADRC'!K1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!K2</f>
+        <v>40232.940577297129</v>
       </c>
       <c r="L2" s="9">
-        <f>Calculations_India!L12-Calculations_India!L8</f>
-        <v>17810.842811909919</v>
+        <f>FORECAST('DRC-PADRC'!L1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!L2</f>
+        <v>48285.732162598651</v>
       </c>
       <c r="M2" s="9">
-        <f>Calculations_India!M12-Calculations_India!M8</f>
-        <v>19273.422389291693</v>
+        <f>FORECAST('DRC-PADRC'!M1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!M2</f>
+        <v>56343.44417782977</v>
       </c>
       <c r="N2" s="9">
-        <f>Calculations_India!N12-Calculations_India!N8</f>
-        <v>20470.503856045358</v>
+        <f>FORECAST('DRC-PADRC'!N1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!N2</f>
+        <v>64404.187937592207</v>
       </c>
       <c r="O2" s="9">
-        <f>Calculations_India!O12-Calculations_India!O8</f>
-        <v>21674.144952973555</v>
+        <f>FORECAST('DRC-PADRC'!O1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!O2</f>
+        <v>72446.322694668779</v>
       </c>
       <c r="P2" s="9">
-        <f>Calculations_India!P12-Calculations_India!P8</f>
-        <v>23010.41374468528</v>
+        <f>FORECAST('DRC-PADRC'!P1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!P2</f>
+        <v>80494.155161887291</v>
       </c>
       <c r="Q2" s="9">
-        <f>Calculations_India!Q12-Calculations_India!Q8</f>
-        <v>24423.364650370568</v>
+        <f>FORECAST('DRC-PADRC'!Q1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Q2</f>
+        <v>88549.802636468899</v>
       </c>
       <c r="R2" s="9">
-        <f>Calculations_India!R12-Calculations_India!R8</f>
-        <v>25917.577724389834</v>
+        <f>FORECAST('DRC-PADRC'!R1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!R2</f>
+        <v>96583.169250718813</v>
       </c>
       <c r="S2" s="9">
-        <f>Calculations_India!S12-Calculations_India!S8</f>
-        <v>27497.887024613134</v>
+        <f>FORECAST('DRC-PADRC'!S1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!S2</f>
+        <v>104624.7799591467</v>
       </c>
       <c r="T2" s="9">
-        <f>Calculations_India!T12-Calculations_India!T8</f>
-        <v>29169.396835247488</v>
+        <f>FORECAST('DRC-PADRC'!T1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!T2</f>
+        <v>112663.08107174633</v>
       </c>
       <c r="U2" s="9">
-        <f>Calculations_India!U12-Calculations_India!U8</f>
-        <v>30937.498599854567</v>
+        <f>FORECAST('DRC-PADRC'!U1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!U2</f>
+        <v>120708.65907464211</v>
       </c>
       <c r="V2" s="9">
-        <f>Calculations_India!V12-Calculations_India!V8</f>
-        <v>32732.932502737131</v>
+        <f>FORECAST('DRC-PADRC'!V1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!V2</f>
+        <v>128759.46349560466</v>
       </c>
       <c r="W2" s="9">
-        <f>Calculations_India!W12-Calculations_India!W8</f>
-        <v>34709.2982911574</v>
+        <f>FORECAST('DRC-PADRC'!W1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!W2</f>
+        <v>136818.56828442556</v>
       </c>
       <c r="X2" s="9">
-        <f>Calculations_India!X12-Calculations_India!X8</f>
-        <v>36800.212036855235</v>
+        <f>FORECAST('DRC-PADRC'!X1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!X2</f>
+        <v>144877.87003112974</v>
       </c>
       <c r="Y2" s="9">
-        <f>Calculations_India!Y12-Calculations_India!Y8</f>
-        <v>38930.069044153905</v>
+        <f>FORECAST('DRC-PADRC'!Y1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Y2</f>
+        <v>152941.10741835472</v>
       </c>
       <c r="Z2" s="9">
-        <f>Calculations_India!Z12-Calculations_India!Z8</f>
-        <v>41267.914047986349</v>
+        <f>FORECAST('DRC-PADRC'!Z1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Z2</f>
+        <v>161009.90534862378</v>
       </c>
       <c r="AA2" s="9">
-        <f>Calculations_India!AA12-Calculations_India!AA8</f>
-        <v>43653.618195429794</v>
+        <f>FORECAST('DRC-PADRC'!AA1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AA2</f>
+        <v>169092.44109111946</v>
       </c>
       <c r="AB2" s="9">
-        <f>Calculations_India!AB12-Calculations_India!AB8</f>
-        <v>46172.431965306096</v>
+        <f>FORECAST('DRC-PADRC'!AB1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AB2</f>
+        <v>177186.78375518319</v>
       </c>
       <c r="AC2" s="9">
-        <f>Calculations_India!AC12-Calculations_India!AC8</f>
-        <v>48836.581289704263</v>
+        <f>FORECAST('DRC-PADRC'!AC1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AC2</f>
+        <v>185287.34466093063</v>
       </c>
       <c r="AD2" s="9">
-        <f>Calculations_India!AD12-Calculations_India!AD8</f>
-        <v>51654.452030120199</v>
+        <f>FORECAST('DRC-PADRC'!AD1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AD2</f>
+        <v>193421.70142886072</v>
       </c>
       <c r="AE2" s="9">
-        <f>Calculations_India!AE12-Calculations_India!AE8</f>
-        <v>54634.913912258133</v>
+        <f>FORECAST('DRC-PADRC'!AE1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AE2</f>
+        <v>201558.24231901116</v>
       </c>
       <c r="AF2" s="9">
-        <f>Calculations_India!AF12-Calculations_India!AF8</f>
-        <v>57787.348444995441</v>
+        <f>FORECAST('DRC-PADRC'!AF1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AF2</f>
+        <v>209704.1281572142</v>
       </c>
       <c r="AG2" s="9">
-        <f>Calculations_India!AG12-Calculations_India!AG8</f>
-        <v>61121.678450271669</v>
+        <f>FORECAST('DRC-PADRC'!AG1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AG2</f>
+        <v>217876.07574364863</v>
       </c>
       <c r="AH2" s="9">
-        <f>Calculations_India!AH12-Calculations_India!AH8</f>
-        <v>64648.399296852367</v>
+        <f>FORECAST('DRC-PADRC'!AH1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AH2</f>
+        <v>226038.36535968515</v>
       </c>
       <c r="AI2" s="9">
-        <f>Calculations_India!AI12-Calculations_India!AI8</f>
-        <v>68378.611936280751</v>
+        <f>FORECAST('DRC-PADRC'!AI1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AI2</f>
+        <v>234223.87490309495</v>
       </c>
       <c r="AJ2" s="9">
-        <f>Calculations_India!AJ12-Calculations_India!AJ8</f>
-        <v>72324.057845004165</v>
+        <f>FORECAST('DRC-PADRC'!AJ1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AJ2</f>
+        <v>242416.26390393314</v>
       </c>
       <c r="AK2" s="9">
-        <f>Calculations_India!AK12-Calculations_India!AK8</f>
-        <v>76497.155982660915</v>
+        <f>FORECAST('DRC-PADRC'!AK1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AK2</f>
+        <v>250621.76818940855</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -18,7 +18,7 @@
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>Year</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t xml:space="preserve">That was scaled for future BAU projections as per the growth in peak demand output of EPS. </t>
+  </si>
+  <si>
+    <t>However, we adjust to remove the contribution from EV charging, which</t>
+  </si>
+  <si>
+    <t>is calculated separately in the EPS.</t>
   </si>
 </sst>
 </file>
@@ -776,13 +782,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>481086</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>62372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1257,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1483,6 +1489,7 @@
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
     <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1496,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1546,7 +1553,8 @@
         <v>40</v>
       </c>
       <c r="J2" s="53">
-        <v>90</v>
+        <f>90-12.5</f>
+        <v>77.5</v>
       </c>
       <c r="K2" s="53">
         <v>180</v>
@@ -1561,7 +1569,8 @@
         <v>922.18845458994383</v>
       </c>
       <c r="C3">
-        <v>90000</v>
+        <f>J2*1000</f>
+        <v>77500</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
@@ -1574,311 +1583,324 @@
         <v>84</v>
       </c>
     </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="G6" s="51" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7">
-        <v>2019</v>
-      </c>
-      <c r="C7">
-        <v>2020</v>
-      </c>
-      <c r="D7">
-        <v>2021</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="F7">
-        <v>2023</v>
-      </c>
-      <c r="G7">
-        <v>2024</v>
-      </c>
-      <c r="H7">
-        <v>2025</v>
-      </c>
-      <c r="I7">
-        <v>2026</v>
-      </c>
-      <c r="J7">
-        <v>2027</v>
-      </c>
-      <c r="K7">
-        <v>2028</v>
-      </c>
-      <c r="L7">
-        <v>2029</v>
-      </c>
-      <c r="M7">
-        <v>2030</v>
-      </c>
-      <c r="N7">
-        <v>2031</v>
-      </c>
-      <c r="O7">
-        <v>2032</v>
-      </c>
-      <c r="P7">
-        <v>2033</v>
-      </c>
-      <c r="Q7">
-        <v>2034</v>
-      </c>
-      <c r="R7">
-        <v>2035</v>
-      </c>
-      <c r="S7">
-        <v>2036</v>
-      </c>
-      <c r="T7">
-        <v>2037</v>
-      </c>
-      <c r="U7">
-        <v>2038</v>
-      </c>
-      <c r="V7">
-        <v>2039</v>
-      </c>
-      <c r="W7">
-        <v>2040</v>
-      </c>
-      <c r="X7">
-        <v>2041</v>
-      </c>
-      <c r="Y7">
-        <v>2042</v>
-      </c>
-      <c r="Z7">
-        <v>2043</v>
-      </c>
-      <c r="AA7">
-        <v>2044</v>
-      </c>
-      <c r="AB7">
-        <v>2045</v>
-      </c>
-      <c r="AC7">
-        <v>2046</v>
-      </c>
-      <c r="AD7">
-        <v>2047</v>
-      </c>
-      <c r="AE7">
-        <v>2048</v>
-      </c>
-      <c r="AF7">
-        <v>2049</v>
-      </c>
-      <c r="AG7">
-        <v>2050</v>
+      <c r="G7" s="51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8">
-        <v>262201</v>
-      </c>
-      <c r="C8">
-        <v>266686</v>
-      </c>
-      <c r="D8">
-        <v>284656</v>
-      </c>
-      <c r="E8">
-        <v>301356</v>
-      </c>
-      <c r="F8">
-        <v>320951</v>
-      </c>
-      <c r="G8">
-        <v>335265</v>
-      </c>
-      <c r="H8">
-        <v>348114</v>
-      </c>
-      <c r="I8">
-        <v>359564</v>
-      </c>
-      <c r="J8">
-        <v>370152</v>
-      </c>
-      <c r="K8">
-        <v>386031</v>
-      </c>
-      <c r="L8">
-        <v>400290</v>
-      </c>
-      <c r="M8">
-        <v>412327</v>
-      </c>
-      <c r="N8">
-        <v>430699</v>
-      </c>
-      <c r="O8">
-        <v>446727</v>
-      </c>
-      <c r="P8">
-        <v>463696</v>
-      </c>
-      <c r="Q8">
-        <v>478596</v>
-      </c>
-      <c r="R8">
-        <v>492010</v>
-      </c>
-      <c r="S8">
-        <v>503064</v>
-      </c>
-      <c r="T8">
-        <v>514062</v>
-      </c>
-      <c r="U8">
-        <v>523941</v>
-      </c>
-      <c r="V8">
-        <v>532239</v>
-      </c>
-      <c r="W8">
-        <v>536631</v>
-      </c>
-      <c r="X8">
-        <v>537666</v>
-      </c>
-      <c r="Y8">
-        <v>536933</v>
-      </c>
-      <c r="Z8">
-        <v>526591</v>
-      </c>
-      <c r="AA8">
-        <v>515628</v>
-      </c>
-      <c r="AB8">
-        <v>502008</v>
-      </c>
-      <c r="AC8">
-        <v>480978</v>
-      </c>
-      <c r="AD8">
-        <v>462694</v>
-      </c>
-      <c r="AE8">
-        <v>437808</v>
-      </c>
-      <c r="AF8">
-        <v>410966</v>
-      </c>
-      <c r="AG8">
-        <v>380395</v>
-      </c>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+      <c r="G9">
+        <v>2024</v>
+      </c>
+      <c r="H9">
+        <v>2025</v>
+      </c>
+      <c r="I9">
+        <v>2026</v>
+      </c>
+      <c r="J9">
+        <v>2027</v>
+      </c>
+      <c r="K9">
+        <v>2028</v>
+      </c>
+      <c r="L9">
+        <v>2029</v>
+      </c>
+      <c r="M9">
+        <v>2030</v>
+      </c>
+      <c r="N9">
+        <v>2031</v>
+      </c>
+      <c r="O9">
+        <v>2032</v>
+      </c>
+      <c r="P9">
+        <v>2033</v>
+      </c>
+      <c r="Q9">
+        <v>2034</v>
+      </c>
+      <c r="R9">
+        <v>2035</v>
+      </c>
+      <c r="S9">
+        <v>2036</v>
+      </c>
+      <c r="T9">
+        <v>2037</v>
+      </c>
+      <c r="U9">
+        <v>2038</v>
+      </c>
+      <c r="V9">
+        <v>2039</v>
+      </c>
+      <c r="W9">
+        <v>2040</v>
+      </c>
+      <c r="X9">
+        <v>2041</v>
+      </c>
+      <c r="Y9">
+        <v>2042</v>
+      </c>
+      <c r="Z9">
+        <v>2043</v>
+      </c>
+      <c r="AA9">
+        <v>2044</v>
+      </c>
+      <c r="AB9">
+        <v>2045</v>
+      </c>
+      <c r="AC9">
+        <v>2046</v>
+      </c>
+      <c r="AD9">
+        <v>2047</v>
+      </c>
+      <c r="AE9">
+        <v>2048</v>
+      </c>
+      <c r="AF9">
+        <v>2049</v>
+      </c>
+      <c r="AG9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>262201</v>
+      </c>
+      <c r="C10">
+        <v>266686</v>
+      </c>
+      <c r="D10">
+        <v>284656</v>
+      </c>
+      <c r="E10">
+        <v>301356</v>
+      </c>
+      <c r="F10">
+        <v>320951</v>
+      </c>
+      <c r="G10">
+        <v>335265</v>
+      </c>
+      <c r="H10">
+        <v>348114</v>
+      </c>
+      <c r="I10">
+        <v>359564</v>
+      </c>
+      <c r="J10">
+        <v>370152</v>
+      </c>
+      <c r="K10">
+        <v>386031</v>
+      </c>
+      <c r="L10">
+        <v>400290</v>
+      </c>
+      <c r="M10">
+        <v>412327</v>
+      </c>
+      <c r="N10">
+        <v>430699</v>
+      </c>
+      <c r="O10">
+        <v>446727</v>
+      </c>
+      <c r="P10">
+        <v>463696</v>
+      </c>
+      <c r="Q10">
+        <v>478596</v>
+      </c>
+      <c r="R10">
+        <v>492010</v>
+      </c>
+      <c r="S10">
+        <v>503064</v>
+      </c>
+      <c r="T10">
+        <v>514062</v>
+      </c>
+      <c r="U10">
+        <v>523941</v>
+      </c>
+      <c r="V10">
+        <v>532239</v>
+      </c>
+      <c r="W10">
+        <v>536631</v>
+      </c>
+      <c r="X10">
+        <v>537666</v>
+      </c>
+      <c r="Y10">
+        <v>536933</v>
+      </c>
+      <c r="Z10">
+        <v>526591</v>
+      </c>
+      <c r="AA10">
+        <v>515628</v>
+      </c>
+      <c r="AB10">
+        <v>502008</v>
+      </c>
+      <c r="AC10">
+        <v>480978</v>
+      </c>
+      <c r="AD10">
+        <v>462694</v>
+      </c>
+      <c r="AE10">
+        <v>437808</v>
+      </c>
+      <c r="AF10">
+        <v>410966</v>
+      </c>
+      <c r="AG10">
+        <v>380395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>173800</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>171183</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>179976</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>190340</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>200057</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>207445</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>214344</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>220464</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>226506</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>230307</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>233659</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>235732</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <v>244440</v>
       </c>
-      <c r="O9">
+      <c r="O11">
         <v>253558</v>
       </c>
-      <c r="P9">
+      <c r="P11">
         <v>261443</v>
       </c>
-      <c r="Q9">
+      <c r="Q11">
         <v>268575</v>
       </c>
-      <c r="R9">
+      <c r="R11">
         <v>275152</v>
       </c>
-      <c r="S9">
+      <c r="S11">
         <v>281129</v>
       </c>
-      <c r="T9">
+      <c r="T11">
         <v>286490</v>
       </c>
-      <c r="U9">
+      <c r="U11">
         <v>292265</v>
       </c>
-      <c r="V9">
+      <c r="V11">
         <v>297605</v>
       </c>
-      <c r="W9">
+      <c r="W11">
         <v>300694</v>
       </c>
-      <c r="X9">
+      <c r="X11">
         <v>301757</v>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <v>302059</v>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <v>297336</v>
       </c>
-      <c r="AA9">
+      <c r="AA11">
         <v>290606</v>
       </c>
-      <c r="AB9">
+      <c r="AB11">
         <v>283666</v>
       </c>
-      <c r="AC9">
+      <c r="AC11">
         <v>273523</v>
       </c>
-      <c r="AD9">
+      <c r="AD11">
         <v>263033</v>
       </c>
-      <c r="AE9">
+      <c r="AE11">
         <v>250773</v>
       </c>
-      <c r="AF9">
+      <c r="AF11">
         <v>236428</v>
       </c>
-      <c r="AG9">
+      <c r="AG11">
         <v>220010</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G27" s="51" t="s">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G29" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2931,8 +2953,8 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3080,127 +3102,127 @@
         <v>922.18845458994383</v>
       </c>
       <c r="G2" s="9">
-        <f>$F$2*('Revised Calcs_India'!C8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!C10/'Revised Calcs_India'!$B$10)</f>
         <v>937.96267062587003</v>
       </c>
       <c r="H2" s="9">
-        <f>$F$2*('Revised Calcs_India'!D8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!D10/'Revised Calcs_India'!$B$10)</f>
         <v>1001.1650479203171</v>
       </c>
       <c r="I2" s="9">
-        <f>$F$2*('Revised Calcs_India'!E8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!E10/'Revised Calcs_India'!$B$10)</f>
         <v>1059.9007018333534</v>
       </c>
       <c r="J2" s="9">
-        <f>$F$2*('Revised Calcs_India'!F8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!F10/'Revised Calcs_India'!$B$10)</f>
         <v>1128.8183747929911</v>
       </c>
       <c r="K2" s="9">
-        <f>$F$2*('Revised Calcs_India'!G8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!G10/'Revised Calcs_India'!$B$10)</f>
         <v>1179.1622161170153</v>
       </c>
       <c r="L2" s="9">
-        <f>$F$2*('Revised Calcs_India'!H8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!H10/'Revised Calcs_India'!$B$10)</f>
         <v>1224.353498579806</v>
       </c>
       <c r="M2" s="9">
-        <f>$F$2*('Revised Calcs_India'!I8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!I10/'Revised Calcs_India'!$B$10)</f>
         <v>1264.6243511129956</v>
       </c>
       <c r="N2" s="9">
-        <f>$F$2*('Revised Calcs_India'!J8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!J10/'Revised Calcs_India'!$B$10)</f>
         <v>1301.8634591148657</v>
       </c>
       <c r="O2" s="9">
-        <f>$F$2*('Revised Calcs_India'!K8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!K10/'Revised Calcs_India'!$B$10)</f>
         <v>1357.7115698025964</v>
       </c>
       <c r="P2" s="9">
-        <f>$F$2*('Revised Calcs_India'!L8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!L10/'Revised Calcs_India'!$B$10)</f>
         <v>1407.8619703502604</v>
       </c>
       <c r="Q2" s="9">
-        <f>$F$2*('Revised Calcs_India'!M8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!M10/'Revised Calcs_India'!$B$10)</f>
         <v>1450.1973635329682</v>
       </c>
       <c r="R2" s="9">
-        <f>$F$2*('Revised Calcs_India'!N8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!N10/'Revised Calcs_India'!$B$10)</f>
         <v>1514.8136170473576</v>
       </c>
       <c r="S2" s="9">
-        <f>$F$2*('Revised Calcs_India'!O8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!O10/'Revised Calcs_India'!$B$10)</f>
         <v>1571.1857763837736</v>
       </c>
       <c r="T2" s="9">
-        <f>$F$2*('Revised Calcs_India'!P8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!P10/'Revised Calcs_India'!$B$10)</f>
         <v>1630.8675315484631</v>
       </c>
       <c r="U2" s="9">
-        <f>$F$2*('Revised Calcs_India'!Q8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!Q10/'Revised Calcs_India'!$B$10)</f>
         <v>1683.2723964169807</v>
       </c>
       <c r="V2" s="9">
-        <f>$F$2*('Revised Calcs_India'!R8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!R10/'Revised Calcs_India'!$B$10)</f>
         <v>1730.4508432187454</v>
       </c>
       <c r="W2" s="9">
-        <f>$F$2*('Revised Calcs_India'!S8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!S10/'Revised Calcs_India'!$B$10)</f>
         <v>1769.3289221621408</v>
       </c>
       <c r="X2" s="9">
-        <f>$F$2*('Revised Calcs_India'!T8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!T10/'Revised Calcs_India'!$B$10)</f>
         <v>1808.0100432241513</v>
       </c>
       <c r="Y2" s="9">
-        <f>$F$2*('Revised Calcs_India'!U8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!U10/'Revised Calcs_India'!$B$10)</f>
         <v>1842.7555237634858</v>
       </c>
       <c r="Z2" s="9">
-        <f>$F$2*('Revised Calcs_India'!V8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!V10/'Revised Calcs_India'!$B$10)</f>
         <v>1871.9404612587182</v>
       </c>
       <c r="AA2" s="9">
-        <f>$F$2*('Revised Calcs_India'!W8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!W10/'Revised Calcs_India'!$B$10)</f>
         <v>1887.3875865273442</v>
       </c>
       <c r="AB2" s="9">
-        <f>$F$2*('Revised Calcs_India'!X8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!X10/'Revised Calcs_India'!$B$10)</f>
         <v>1891.0277902279424</v>
       </c>
       <c r="AC2" s="9">
-        <f>$F$2*('Revised Calcs_India'!Y8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!Y10/'Revised Calcs_India'!$B$10)</f>
         <v>1888.4497522448135</v>
       </c>
       <c r="AD2" s="9">
-        <f>$F$2*('Revised Calcs_India'!Z8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!Z10/'Revised Calcs_India'!$B$10)</f>
         <v>1852.0758520790275</v>
       </c>
       <c r="AE2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AA8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AA10/'Revised Calcs_India'!$B$10)</f>
         <v>1813.5178296928827</v>
       </c>
       <c r="AF2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AB8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AB10/'Revised Calcs_India'!$B$10)</f>
         <v>1765.6148592560232</v>
       </c>
       <c r="AG2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AC8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AC10/'Revised Calcs_India'!$B$10)</f>
         <v>1691.6501405858942</v>
       </c>
       <c r="AH2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AD8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AD10/'Revised Calcs_India'!$B$10)</f>
         <v>1627.3433923136811</v>
       </c>
       <c r="AI2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AE8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AE10/'Revised Calcs_India'!$B$10)</f>
         <v>1539.8167166681826</v>
       </c>
       <c r="AJ2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AF8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AF10/'Revised Calcs_India'!$B$10)</f>
         <v>1445.4105835943069</v>
       </c>
       <c r="AK2" s="9">
-        <f>$F$2*('Revised Calcs_India'!AG8/'Revised Calcs_India'!$B$8)</f>
+        <f>$F$2*('Revised Calcs_India'!AG10/'Revised Calcs_India'!$B$10)</f>
         <v>1337.8891658832028</v>
       </c>
     </row>
@@ -3221,8 +3243,8 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3368,127 +3390,127 @@
       </c>
       <c r="G2" s="9">
         <f>FORECAST('DRC-PADRC'!G1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!G2</f>
-        <v>8082.2086517291773</v>
+        <v>6945.8450153640169</v>
       </c>
       <c r="H2" s="9">
         <f>FORECAST('DRC-PADRC'!H1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!H2</f>
-        <v>16116.98914219904</v>
+        <v>13844.261869470582</v>
       </c>
       <c r="I2" s="9">
         <f>FORECAST('DRC-PADRC'!I1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!I2</f>
-        <v>24156.236356052174</v>
+        <v>20747.145446958555</v>
       </c>
       <c r="J2" s="9">
         <f>FORECAST('DRC-PADRC'!J1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!J2</f>
-        <v>32185.301550856846</v>
+        <v>27639.84700539993</v>
       </c>
       <c r="K2" s="9">
         <f>FORECAST('DRC-PADRC'!K1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!K2</f>
-        <v>40232.940577297129</v>
+        <v>34551.122395476916</v>
       </c>
       <c r="L2" s="9">
         <f>FORECAST('DRC-PADRC'!L1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!L2</f>
-        <v>48285.732162598651</v>
+        <v>41467.55034441514</v>
       </c>
       <c r="M2" s="9">
         <f>FORECAST('DRC-PADRC'!M1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!M2</f>
-        <v>56343.44417782977</v>
+        <v>48388.89872328296</v>
       </c>
       <c r="N2" s="9">
         <f>FORECAST('DRC-PADRC'!N1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!N2</f>
-        <v>64404.187937592207</v>
+        <v>55313.2788466821</v>
       </c>
       <c r="O2" s="9">
         <f>FORECAST('DRC-PADRC'!O1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!O2</f>
-        <v>72446.322694668779</v>
+        <v>62219.049967395382</v>
       </c>
       <c r="P2" s="9">
         <f>FORECAST('DRC-PADRC'!P1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!P2</f>
-        <v>80494.155161887291</v>
+        <v>69130.518798248726</v>
       </c>
       <c r="Q2" s="9">
         <f>FORECAST('DRC-PADRC'!Q1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Q2</f>
-        <v>88549.802636468899</v>
+        <v>76049.802636467037</v>
       </c>
       <c r="R2" s="9">
         <f>FORECAST('DRC-PADRC'!R1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!R2</f>
-        <v>96583.169250718813</v>
+        <v>82946.805614353652</v>
       </c>
       <c r="S2" s="9">
         <f>FORECAST('DRC-PADRC'!S1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!S2</f>
-        <v>104624.7799591467</v>
+        <v>89852.052686418247</v>
       </c>
       <c r="T2" s="9">
         <f>FORECAST('DRC-PADRC'!T1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!T2</f>
-        <v>112663.08107174633</v>
+        <v>96753.990162654576</v>
       </c>
       <c r="U2" s="9">
         <f>FORECAST('DRC-PADRC'!U1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!U2</f>
-        <v>120708.65907464211</v>
+        <v>103663.20452918706</v>
       </c>
       <c r="V2" s="9">
         <f>FORECAST('DRC-PADRC'!V1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!V2</f>
-        <v>128759.46349560466</v>
+        <v>110577.64531378631</v>
       </c>
       <c r="W2" s="9">
         <f>FORECAST('DRC-PADRC'!W1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!W2</f>
-        <v>136818.56828442556</v>
+        <v>117500.38646624393</v>
       </c>
       <c r="X2" s="9">
         <f>FORECAST('DRC-PADRC'!X1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!X2</f>
-        <v>144877.87003112974</v>
+        <v>124423.32457658293</v>
       </c>
       <c r="Y2" s="9">
         <f>FORECAST('DRC-PADRC'!Y1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Y2</f>
-        <v>152941.10741835472</v>
+        <v>131350.19832744461</v>
       </c>
       <c r="Z2" s="9">
         <f>FORECAST('DRC-PADRC'!Z1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Z2</f>
-        <v>161009.90534862378</v>
+        <v>138282.63262134852</v>
       </c>
       <c r="AA2" s="9">
         <f>FORECAST('DRC-PADRC'!AA1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AA2</f>
-        <v>169092.44109111946</v>
+        <v>145228.80472748089</v>
       </c>
       <c r="AB2" s="9">
         <f>FORECAST('DRC-PADRC'!AB1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AB2</f>
-        <v>177186.78375518319</v>
+        <v>152186.78375518133</v>
       </c>
       <c r="AC2" s="9">
         <f>FORECAST('DRC-PADRC'!AC1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AC2</f>
-        <v>185287.34466093063</v>
+        <v>159150.98102456547</v>
       </c>
       <c r="AD2" s="9">
         <f>FORECAST('DRC-PADRC'!AD1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AD2</f>
-        <v>193421.70142886072</v>
+        <v>166148.97415613226</v>
       </c>
       <c r="AE2" s="9">
         <f>FORECAST('DRC-PADRC'!AE1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AE2</f>
-        <v>201558.24231901116</v>
+        <v>173149.1514099194</v>
       </c>
       <c r="AF2" s="9">
         <f>FORECAST('DRC-PADRC'!AF1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AF2</f>
-        <v>209704.1281572142</v>
+        <v>180158.67361175729</v>
       </c>
       <c r="AG2" s="9">
         <f>FORECAST('DRC-PADRC'!AG1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AG2</f>
-        <v>217876.07574364863</v>
+        <v>187194.25756182842</v>
       </c>
       <c r="AH2" s="9">
         <f>FORECAST('DRC-PADRC'!AH1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AH2</f>
-        <v>226038.36535968515</v>
+        <v>194220.18354150164</v>
       </c>
       <c r="AI2" s="9">
         <f>FORECAST('DRC-PADRC'!AI1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AI2</f>
-        <v>234223.87490309495</v>
+        <v>201269.32944854815</v>
       </c>
       <c r="AJ2" s="9">
         <f>FORECAST('DRC-PADRC'!AJ1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AJ2</f>
-        <v>242416.26390393314</v>
+        <v>208325.35481302303</v>
       </c>
       <c r="AK2" s="9">
         <f>FORECAST('DRC-PADRC'!AK1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AK2</f>
-        <v>250621.76818940855</v>
+        <v>215394.49546213515</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -262,12 +262,6 @@
     <t>Time (Year)</t>
   </si>
   <si>
-    <t>Peak Power Demand after Storage and DR[summer] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>Peak Power Demand after Storage and DR[winter] : MostRecentRun</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>is calculated separately in the EPS.</t>
+  </si>
+  <si>
+    <t>Peak Hour Electricity Demand by Season[summer] : NoSettings</t>
+  </si>
+  <si>
+    <t>Peak Hour Electricity Demand by Season[winter] : NoSettings</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1288,10 +1288,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1299,7 +1299,7 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1315,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1331,12 +1331,12 @@
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1423,19 +1423,19 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6"/>
     </row>
@@ -1445,13 +1445,13 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="6"/>
     </row>
@@ -1506,7 +1506,7 @@
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1518,22 +1518,22 @@
   <sheetData>
     <row r="1" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B1" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>81</v>
-      </c>
       <c r="K1" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -1547,7 +1547,7 @@
         <v>2030</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="53">
         <v>40</v>
@@ -1575,22 +1575,22 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G4" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G5" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G6" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="G7" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
@@ -1699,209 +1699,209 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B10">
-        <v>262201</v>
+        <v>164581</v>
       </c>
       <c r="C10">
-        <v>266686</v>
+        <v>167124</v>
       </c>
       <c r="D10">
-        <v>284656</v>
+        <v>184567</v>
       </c>
       <c r="E10">
-        <v>301356</v>
+        <v>199680</v>
       </c>
       <c r="F10">
-        <v>320951</v>
+        <v>216498</v>
       </c>
       <c r="G10">
-        <v>335265</v>
+        <v>232792</v>
       </c>
       <c r="H10">
-        <v>348114</v>
+        <v>248850</v>
       </c>
       <c r="I10">
-        <v>359564</v>
+        <v>264673</v>
       </c>
       <c r="J10">
-        <v>370152</v>
+        <v>280541</v>
       </c>
       <c r="K10">
-        <v>386031</v>
+        <v>302367</v>
       </c>
       <c r="L10">
-        <v>400290</v>
+        <v>324258</v>
       </c>
       <c r="M10">
-        <v>412327</v>
+        <v>346278</v>
       </c>
       <c r="N10">
-        <v>430699</v>
+        <v>368229</v>
       </c>
       <c r="O10">
-        <v>446727</v>
+        <v>390186</v>
       </c>
       <c r="P10">
-        <v>463696</v>
+        <v>414236</v>
       </c>
       <c r="Q10">
-        <v>478596</v>
+        <v>438370</v>
       </c>
       <c r="R10">
-        <v>492010</v>
+        <v>462533</v>
       </c>
       <c r="S10">
-        <v>503064</v>
+        <v>486619</v>
       </c>
       <c r="T10">
-        <v>514062</v>
+        <v>511017</v>
       </c>
       <c r="U10">
-        <v>523941</v>
+        <v>535347</v>
       </c>
       <c r="V10">
-        <v>532239</v>
+        <v>559541</v>
       </c>
       <c r="W10">
-        <v>536631</v>
+        <v>584045</v>
       </c>
       <c r="X10">
-        <v>537666</v>
+        <v>608681</v>
       </c>
       <c r="Y10">
-        <v>536933</v>
+        <v>633204</v>
       </c>
       <c r="Z10">
-        <v>526591</v>
+        <v>653169</v>
       </c>
       <c r="AA10">
-        <v>515628</v>
+        <v>675065</v>
       </c>
       <c r="AB10">
-        <v>502008</v>
+        <v>695867</v>
       </c>
       <c r="AC10">
-        <v>480978</v>
+        <v>715551</v>
       </c>
       <c r="AD10">
-        <v>462694</v>
+        <v>737951</v>
       </c>
       <c r="AE10">
-        <v>437808</v>
+        <v>757599</v>
       </c>
       <c r="AF10">
-        <v>410966</v>
+        <v>778490</v>
       </c>
       <c r="AG10">
-        <v>380395</v>
+        <v>799341</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B11">
-        <v>173800</v>
+        <v>144301</v>
       </c>
       <c r="C11">
-        <v>171183</v>
+        <v>144210</v>
       </c>
       <c r="D11">
-        <v>179976</v>
+        <v>157047</v>
       </c>
       <c r="E11">
-        <v>190340</v>
+        <v>167875</v>
       </c>
       <c r="F11">
-        <v>200057</v>
+        <v>178025</v>
       </c>
       <c r="G11">
-        <v>207445</v>
+        <v>187719</v>
       </c>
       <c r="H11">
-        <v>214344</v>
+        <v>197150</v>
       </c>
       <c r="I11">
-        <v>220464</v>
+        <v>206417</v>
       </c>
       <c r="J11">
-        <v>226506</v>
+        <v>215696</v>
       </c>
       <c r="K11">
-        <v>230307</v>
+        <v>226630</v>
       </c>
       <c r="L11">
-        <v>233659</v>
+        <v>237552</v>
       </c>
       <c r="M11">
-        <v>235732</v>
+        <v>248582</v>
       </c>
       <c r="N11">
-        <v>244440</v>
+        <v>259703</v>
       </c>
       <c r="O11">
-        <v>253558</v>
+        <v>270844</v>
       </c>
       <c r="P11">
-        <v>261443</v>
+        <v>283077</v>
       </c>
       <c r="Q11">
-        <v>268575</v>
+        <v>295421</v>
       </c>
       <c r="R11">
-        <v>275152</v>
+        <v>307771</v>
       </c>
       <c r="S11">
-        <v>281129</v>
+        <v>320177</v>
       </c>
       <c r="T11">
-        <v>286490</v>
+        <v>332695</v>
       </c>
       <c r="U11">
-        <v>292265</v>
+        <v>346994</v>
       </c>
       <c r="V11">
-        <v>297605</v>
+        <v>361314</v>
       </c>
       <c r="W11">
-        <v>300694</v>
+        <v>375578</v>
       </c>
       <c r="X11">
-        <v>301757</v>
+        <v>390049</v>
       </c>
       <c r="Y11">
-        <v>302059</v>
+        <v>404517</v>
       </c>
       <c r="Z11">
-        <v>297336</v>
+        <v>416752</v>
       </c>
       <c r="AA11">
-        <v>290606</v>
+        <v>428795</v>
       </c>
       <c r="AB11">
-        <v>283666</v>
+        <v>441039</v>
       </c>
       <c r="AC11">
-        <v>273523</v>
+        <v>453324</v>
       </c>
       <c r="AD11">
-        <v>263033</v>
+        <v>465684</v>
       </c>
       <c r="AE11">
-        <v>250773</v>
+        <v>477938</v>
       </c>
       <c r="AF11">
-        <v>236428</v>
+        <v>490292</v>
       </c>
       <c r="AG11">
-        <v>220010</v>
+        <v>502594</v>
       </c>
     </row>
     <row r="29" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G29" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3103,127 +3103,127 @@
       </c>
       <c r="G2" s="9">
         <f>$F$2*('Revised Calcs_India'!C10/'Revised Calcs_India'!$B$10)</f>
-        <v>937.96267062587003</v>
+        <v>936.4375188198502</v>
       </c>
       <c r="H2" s="9">
         <f>$F$2*('Revised Calcs_India'!D10/'Revised Calcs_India'!$B$10)</f>
-        <v>1001.1650479203171</v>
+        <v>1034.1750050024132</v>
       </c>
       <c r="I2" s="9">
         <f>$F$2*('Revised Calcs_India'!E10/'Revised Calcs_India'!$B$10)</f>
-        <v>1059.9007018333534</v>
+        <v>1118.856919161507</v>
       </c>
       <c r="J2" s="9">
         <f>$F$2*('Revised Calcs_India'!F10/'Revised Calcs_India'!$B$10)</f>
-        <v>1128.8183747929911</v>
+        <v>1213.0923742218947</v>
       </c>
       <c r="K2" s="9">
         <f>$F$2*('Revised Calcs_India'!G10/'Revised Calcs_India'!$B$10)</f>
-        <v>1179.1622161170153</v>
+        <v>1304.3917263894509</v>
       </c>
       <c r="L2" s="9">
         <f>$F$2*('Revised Calcs_India'!H10/'Revised Calcs_India'!$B$10)</f>
-        <v>1224.353498579806</v>
+        <v>1394.3687116052736</v>
       </c>
       <c r="M2" s="9">
         <f>$F$2*('Revised Calcs_India'!I10/'Revised Calcs_India'!$B$10)</f>
-        <v>1264.6243511129956</v>
+        <v>1483.0289331191582</v>
       </c>
       <c r="N2" s="9">
         <f>$F$2*('Revised Calcs_India'!J10/'Revised Calcs_India'!$B$10)</f>
-        <v>1301.8634591148657</v>
+        <v>1571.94130087384</v>
       </c>
       <c r="O2" s="9">
         <f>$F$2*('Revised Calcs_India'!K10/'Revised Calcs_India'!$B$10)</f>
-        <v>1357.7115698025964</v>
+        <v>1694.2378309099929</v>
       </c>
       <c r="P2" s="9">
         <f>$F$2*('Revised Calcs_India'!L10/'Revised Calcs_India'!$B$10)</f>
-        <v>1407.8619703502604</v>
+        <v>1816.8985721828521</v>
       </c>
       <c r="Q2" s="9">
         <f>$F$2*('Revised Calcs_India'!M10/'Revised Calcs_India'!$B$10)</f>
-        <v>1450.1973635329682</v>
+        <v>1940.2821326793287</v>
       </c>
       <c r="R2" s="9">
         <f>$F$2*('Revised Calcs_India'!N10/'Revised Calcs_India'!$B$10)</f>
-        <v>1514.8136170473576</v>
+        <v>2063.2790689399167</v>
       </c>
       <c r="S2" s="9">
         <f>$F$2*('Revised Calcs_India'!O10/'Revised Calcs_India'!$B$10)</f>
-        <v>1571.1857763837736</v>
+        <v>2186.3096246992777</v>
       </c>
       <c r="T2" s="9">
         <f>$F$2*('Revised Calcs_India'!P10/'Revised Calcs_India'!$B$10)</f>
-        <v>1630.8675315484631</v>
+        <v>2321.0677822805787</v>
       </c>
       <c r="U2" s="9">
         <f>$F$2*('Revised Calcs_India'!Q10/'Revised Calcs_India'!$B$10)</f>
-        <v>1683.2723964169807</v>
+        <v>2456.2966128447006</v>
       </c>
       <c r="V2" s="9">
         <f>$F$2*('Revised Calcs_India'!R10/'Revised Calcs_India'!$B$10)</f>
-        <v>1730.4508432187454</v>
+        <v>2591.6879376528914</v>
       </c>
       <c r="W2" s="9">
         <f>$F$2*('Revised Calcs_India'!S10/'Revised Calcs_India'!$B$10)</f>
-        <v>1769.3289221621408</v>
+        <v>2726.64781222683</v>
       </c>
       <c r="X2" s="9">
         <f>$F$2*('Revised Calcs_India'!T10/'Revised Calcs_India'!$B$10)</f>
-        <v>1808.0100432241513</v>
+        <v>2863.3559007369581</v>
       </c>
       <c r="Y2" s="9">
         <f>$F$2*('Revised Calcs_India'!U10/'Revised Calcs_India'!$B$10)</f>
-        <v>1842.7555237634858</v>
+        <v>2999.6829682609937</v>
       </c>
       <c r="Z2" s="9">
         <f>$F$2*('Revised Calcs_India'!V10/'Revised Calcs_India'!$B$10)</f>
-        <v>1871.9404612587182</v>
+        <v>3135.2479938128445</v>
       </c>
       <c r="AA2" s="9">
         <f>$F$2*('Revised Calcs_India'!W10/'Revised Calcs_India'!$B$10)</f>
-        <v>1887.3875865273442</v>
+        <v>3272.5500268012938</v>
       </c>
       <c r="AB2" s="9">
         <f>$F$2*('Revised Calcs_India'!X10/'Revised Calcs_India'!$B$10)</f>
-        <v>1891.0277902279424</v>
+        <v>3410.5916887627463</v>
       </c>
       <c r="AC2" s="9">
         <f>$F$2*('Revised Calcs_India'!Y10/'Revised Calcs_India'!$B$10)</f>
-        <v>1888.4497522448135</v>
+        <v>3548.00018349731</v>
       </c>
       <c r="AD2" s="9">
         <f>$F$2*('Revised Calcs_India'!Z10/'Revised Calcs_India'!$B$10)</f>
-        <v>1852.0758520790275</v>
+        <v>3659.8690656640747</v>
       </c>
       <c r="AE2" s="9">
         <f>$F$2*('Revised Calcs_India'!AA10/'Revised Calcs_India'!$B$10)</f>
-        <v>1813.5178296928827</v>
+        <v>3782.5578231859113</v>
       </c>
       <c r="AF2" s="9">
         <f>$F$2*('Revised Calcs_India'!AB10/'Revised Calcs_India'!$B$10)</f>
-        <v>1765.6148592560232</v>
+        <v>3899.1166254314926</v>
       </c>
       <c r="AG2" s="9">
         <f>$F$2*('Revised Calcs_India'!AC10/'Revised Calcs_India'!$B$10)</f>
-        <v>1691.6501405858942</v>
+        <v>4009.4109944057273</v>
       </c>
       <c r="AH2" s="9">
         <f>$F$2*('Revised Calcs_India'!AD10/'Revised Calcs_India'!$B$10)</f>
-        <v>1627.3433923136811</v>
+        <v>4134.9237898244855</v>
       </c>
       <c r="AI2" s="9">
         <f>$F$2*('Revised Calcs_India'!AE10/'Revised Calcs_India'!$B$10)</f>
-        <v>1539.8167166681826</v>
+        <v>4245.0164418060831</v>
       </c>
       <c r="AJ2" s="9">
         <f>$F$2*('Revised Calcs_India'!AF10/'Revised Calcs_India'!$B$10)</f>
-        <v>1445.4105835943069</v>
+        <v>4362.0739332834619</v>
       </c>
       <c r="AK2" s="9">
         <f>$F$2*('Revised Calcs_India'!AG10/'Revised Calcs_India'!$B$10)</f>
-        <v>1337.8891658832028</v>
+        <v>4478.9072947690211</v>
       </c>
     </row>
   </sheetData>
@@ -3390,127 +3390,127 @@
       </c>
       <c r="G2" s="9">
         <f>FORECAST('DRC-PADRC'!G1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!G2</f>
-        <v>6945.8450153640169</v>
+        <v>6947.3701671700364</v>
       </c>
       <c r="H2" s="9">
         <f>FORECAST('DRC-PADRC'!H1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!H2</f>
-        <v>13844.261869470582</v>
+        <v>13811.251912388485</v>
       </c>
       <c r="I2" s="9">
         <f>FORECAST('DRC-PADRC'!I1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!I2</f>
-        <v>20747.145446958555</v>
+        <v>20688.189229630403</v>
       </c>
       <c r="J2" s="9">
         <f>FORECAST('DRC-PADRC'!J1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!J2</f>
-        <v>27639.84700539993</v>
+        <v>27555.573005971026</v>
       </c>
       <c r="K2" s="9">
         <f>FORECAST('DRC-PADRC'!K1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!K2</f>
-        <v>34551.122395476916</v>
+        <v>34425.892885204477</v>
       </c>
       <c r="L2" s="9">
         <f>FORECAST('DRC-PADRC'!L1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!L2</f>
-        <v>41467.55034441514</v>
+        <v>41297.535131389668</v>
       </c>
       <c r="M2" s="9">
         <f>FORECAST('DRC-PADRC'!M1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!M2</f>
-        <v>48388.89872328296</v>
+        <v>48170.494141276795</v>
       </c>
       <c r="N2" s="9">
         <f>FORECAST('DRC-PADRC'!N1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!N2</f>
-        <v>55313.2788466821</v>
+        <v>55043.201004923125</v>
       </c>
       <c r="O2" s="9">
         <f>FORECAST('DRC-PADRC'!O1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!O2</f>
-        <v>62219.049967395382</v>
+        <v>61882.523706287982</v>
       </c>
       <c r="P2" s="9">
         <f>FORECAST('DRC-PADRC'!P1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!P2</f>
-        <v>69130.518798248726</v>
+        <v>68721.482196416138</v>
       </c>
       <c r="Q2" s="9">
         <f>FORECAST('DRC-PADRC'!Q1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Q2</f>
-        <v>76049.802636467037</v>
+        <v>75559.717867320665</v>
       </c>
       <c r="R2" s="9">
         <f>FORECAST('DRC-PADRC'!R1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!R2</f>
-        <v>82946.805614353652</v>
+        <v>82398.3401624611</v>
       </c>
       <c r="S2" s="9">
         <f>FORECAST('DRC-PADRC'!S1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!S2</f>
-        <v>89852.052686418247</v>
+        <v>89236.928838102744</v>
       </c>
       <c r="T2" s="9">
         <f>FORECAST('DRC-PADRC'!T1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!T2</f>
-        <v>96753.990162654576</v>
+        <v>96063.78991192246</v>
       </c>
       <c r="U2" s="9">
         <f>FORECAST('DRC-PADRC'!U1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!U2</f>
-        <v>103663.20452918706</v>
+        <v>102890.18031275934</v>
       </c>
       <c r="V2" s="9">
         <f>FORECAST('DRC-PADRC'!V1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!V2</f>
-        <v>110577.64531378631</v>
+        <v>109716.40821935216</v>
       </c>
       <c r="W2" s="9">
         <f>FORECAST('DRC-PADRC'!W1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!W2</f>
-        <v>117500.38646624393</v>
+        <v>116543.06757617924</v>
       </c>
       <c r="X2" s="9">
         <f>FORECAST('DRC-PADRC'!X1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!X2</f>
-        <v>124423.32457658293</v>
+        <v>123367.97871907012</v>
       </c>
       <c r="Y2" s="9">
         <f>FORECAST('DRC-PADRC'!Y1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Y2</f>
-        <v>131350.19832744461</v>
+        <v>130193.27088294709</v>
       </c>
       <c r="Z2" s="9">
         <f>FORECAST('DRC-PADRC'!Z1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Z2</f>
-        <v>138282.63262134852</v>
+        <v>137019.3250887944</v>
       </c>
       <c r="AA2" s="9">
         <f>FORECAST('DRC-PADRC'!AA1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AA2</f>
-        <v>145228.80472748089</v>
+        <v>143843.64228720695</v>
       </c>
       <c r="AB2" s="9">
         <f>FORECAST('DRC-PADRC'!AB1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AB2</f>
-        <v>152186.78375518133</v>
+        <v>150667.21985664652</v>
       </c>
       <c r="AC2" s="9">
         <f>FORECAST('DRC-PADRC'!AC1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AC2</f>
-        <v>159150.98102456547</v>
+        <v>157491.43059331295</v>
       </c>
       <c r="AD2" s="9">
         <f>FORECAST('DRC-PADRC'!AD1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AD2</f>
-        <v>166148.97415613226</v>
+        <v>164341.18094254722</v>
       </c>
       <c r="AE2" s="9">
         <f>FORECAST('DRC-PADRC'!AE1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AE2</f>
-        <v>173149.1514099194</v>
+        <v>171180.11141642637</v>
       </c>
       <c r="AF2" s="9">
         <f>FORECAST('DRC-PADRC'!AF1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AF2</f>
-        <v>180158.67361175729</v>
+        <v>178025.17184558182</v>
       </c>
       <c r="AG2" s="9">
         <f>FORECAST('DRC-PADRC'!AG1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AG2</f>
-        <v>187194.25756182842</v>
+        <v>184876.49670800858</v>
       </c>
       <c r="AH2" s="9">
         <f>FORECAST('DRC-PADRC'!AH1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AH2</f>
-        <v>194220.18354150164</v>
+        <v>191712.60314399085</v>
       </c>
       <c r="AI2" s="9">
         <f>FORECAST('DRC-PADRC'!AI1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AI2</f>
-        <v>201269.32944854815</v>
+        <v>198564.12972341027</v>
       </c>
       <c r="AJ2" s="9">
         <f>FORECAST('DRC-PADRC'!AJ1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AJ2</f>
-        <v>208325.35481302303</v>
+        <v>205408.6914633339</v>
       </c>
       <c r="AK2" s="9">
         <f>FORECAST('DRC-PADRC'!AK1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AK2</f>
-        <v>215394.49546213515</v>
+        <v>212253.47733324935</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B4319-C43C-423C-A856-9F290C37B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="4590"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -259,9 +262,6 @@
     <t>periods in response to time-based rates or other financial incentives.</t>
   </si>
   <si>
-    <t>Time (Year)</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -336,16 +336,19 @@
     <t>is calculated separately in the EPS.</t>
   </si>
   <si>
-    <t>Peak Hour Electricity Demand by Season[summer] : NoSettings</t>
-  </si>
-  <si>
-    <t>Peak Hour Electricity Demand by Season[winter] : NoSettings</t>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>Peak Hour Electricity Demand by Season[summer] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Peak Hour Electricity Demand by Season[winter] : MostRecentRun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1050,6 +1053,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1085,6 +1105,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1260,49 +1297,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="7" max="7" width="51.265625" customWidth="1"/>
+    <col min="7" max="7" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
@@ -1310,186 +1347,186 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B22" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
@@ -1502,41 +1539,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="1" max="1" width="63.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B1" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1584,7 @@
         <v>2030</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="53">
         <v>40</v>
@@ -1560,7 +1597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1573,32 +1610,32 @@
         <v>77500</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="G4" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="G5" s="51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="G5" s="51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="G6" s="51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="G7" s="51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="G7" s="51" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>66</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -1697,211 +1734,211 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
       <c r="B10">
-        <v>164581</v>
+        <v>162417</v>
       </c>
       <c r="C10">
-        <v>167124</v>
+        <v>161230</v>
       </c>
       <c r="D10">
-        <v>184567</v>
+        <v>174773</v>
       </c>
       <c r="E10">
-        <v>199680</v>
+        <v>185487</v>
       </c>
       <c r="F10">
-        <v>216498</v>
+        <v>195731</v>
       </c>
       <c r="G10">
-        <v>232792</v>
+        <v>205399</v>
       </c>
       <c r="H10">
-        <v>248850</v>
+        <v>214078</v>
       </c>
       <c r="I10">
-        <v>264673</v>
+        <v>222460</v>
       </c>
       <c r="J10">
-        <v>280541</v>
+        <v>231463</v>
       </c>
       <c r="K10">
-        <v>302367</v>
+        <v>243188</v>
       </c>
       <c r="L10">
-        <v>324258</v>
+        <v>255060</v>
       </c>
       <c r="M10">
-        <v>346278</v>
+        <v>266853</v>
       </c>
       <c r="N10">
-        <v>368229</v>
+        <v>282041</v>
       </c>
       <c r="O10">
-        <v>390186</v>
+        <v>297497</v>
       </c>
       <c r="P10">
-        <v>414236</v>
+        <v>313255</v>
       </c>
       <c r="Q10">
-        <v>438370</v>
+        <v>328972</v>
       </c>
       <c r="R10">
-        <v>462533</v>
+        <v>344356</v>
       </c>
       <c r="S10">
-        <v>486619</v>
+        <v>359267</v>
       </c>
       <c r="T10">
-        <v>511017</v>
+        <v>373991</v>
       </c>
       <c r="U10">
-        <v>535347</v>
+        <v>389229</v>
       </c>
       <c r="V10">
-        <v>559541</v>
+        <v>404542</v>
       </c>
       <c r="W10">
-        <v>584045</v>
+        <v>419785</v>
       </c>
       <c r="X10">
-        <v>608681</v>
+        <v>434919</v>
       </c>
       <c r="Y10">
-        <v>633204</v>
+        <v>449155</v>
       </c>
       <c r="Z10">
-        <v>653169</v>
+        <v>461626</v>
       </c>
       <c r="AA10">
-        <v>675065</v>
+        <v>473803</v>
       </c>
       <c r="AB10">
-        <v>695867</v>
+        <v>485708</v>
       </c>
       <c r="AC10">
-        <v>715551</v>
+        <v>497094</v>
       </c>
       <c r="AD10">
-        <v>737951</v>
+        <v>508145</v>
       </c>
       <c r="AE10">
-        <v>757599</v>
+        <v>518988</v>
       </c>
       <c r="AF10">
-        <v>778490</v>
+        <v>529610</v>
       </c>
       <c r="AG10">
-        <v>799341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+        <v>539807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
       <c r="B11">
-        <v>144301</v>
+        <v>146544</v>
       </c>
       <c r="C11">
-        <v>144210</v>
+        <v>144093</v>
       </c>
       <c r="D11">
-        <v>157047</v>
+        <v>154638</v>
       </c>
       <c r="E11">
-        <v>167875</v>
+        <v>162791</v>
       </c>
       <c r="F11">
-        <v>178025</v>
+        <v>169782</v>
       </c>
       <c r="G11">
-        <v>187719</v>
+        <v>176290</v>
       </c>
       <c r="H11">
-        <v>197150</v>
+        <v>182072</v>
       </c>
       <c r="I11">
-        <v>206417</v>
+        <v>187784</v>
       </c>
       <c r="J11">
-        <v>215696</v>
+        <v>193901</v>
       </c>
       <c r="K11">
-        <v>226630</v>
+        <v>200803</v>
       </c>
       <c r="L11">
-        <v>237552</v>
+        <v>207926</v>
       </c>
       <c r="M11">
-        <v>248582</v>
+        <v>214997</v>
       </c>
       <c r="N11">
-        <v>259703</v>
+        <v>225052</v>
       </c>
       <c r="O11">
-        <v>270844</v>
+        <v>235281</v>
       </c>
       <c r="P11">
-        <v>283077</v>
+        <v>246160</v>
       </c>
       <c r="Q11">
-        <v>295421</v>
+        <v>256970</v>
       </c>
       <c r="R11">
-        <v>307771</v>
+        <v>267780</v>
       </c>
       <c r="S11">
-        <v>320177</v>
+        <v>278181</v>
       </c>
       <c r="T11">
-        <v>332695</v>
+        <v>288508</v>
       </c>
       <c r="U11">
-        <v>346994</v>
+        <v>299929</v>
       </c>
       <c r="V11">
-        <v>361314</v>
+        <v>311352</v>
       </c>
       <c r="W11">
-        <v>375578</v>
+        <v>322904</v>
       </c>
       <c r="X11">
-        <v>390049</v>
+        <v>334325</v>
       </c>
       <c r="Y11">
-        <v>404517</v>
+        <v>345221</v>
       </c>
       <c r="Z11">
-        <v>416752</v>
+        <v>354663</v>
       </c>
       <c r="AA11">
-        <v>428795</v>
+        <v>363924</v>
       </c>
       <c r="AB11">
-        <v>441039</v>
+        <v>373016</v>
       </c>
       <c r="AC11">
-        <v>453324</v>
+        <v>381915</v>
       </c>
       <c r="AD11">
-        <v>465684</v>
+        <v>390538</v>
       </c>
       <c r="AE11">
-        <v>477938</v>
+        <v>399059</v>
       </c>
       <c r="AF11">
-        <v>490292</v>
+        <v>407410</v>
       </c>
       <c r="AG11">
-        <v>502594</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.45">
+        <v>415558</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G29" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1912,31 +1949,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="68.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1993,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1976,7 +2013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1996,7 +2033,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2089,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2141,7 @@
       <c r="AJ7" s="13"/>
       <c r="AK7" s="13"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2160,7 +2197,7 @@
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2168,7 +2205,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2176,7 +2213,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2214,7 +2251,7 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2260,7 +2297,7 @@
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2295,7 +2332,7 @@
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2337,7 +2374,7 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2372,7 +2409,7 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2381,27 +2418,27 @@
         <v>6.5902592944698366</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K65" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2416,7 +2453,7 @@
       <c r="K78" s="54"/>
       <c r="L78" s="54"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="55" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2482,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="56"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -2462,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="57"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -2479,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="23">
         <v>1</v>
       </c>
@@ -2508,7 +2545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="36" t="s">
         <v>27</v>
       </c>
@@ -2537,7 +2574,7 @@
         <v>553995</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="36" t="s">
         <v>28</v>
       </c>
@@ -2566,7 +2603,7 @@
         <v>612644.98941921792</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="36" t="s">
         <v>29</v>
       </c>
@@ -2595,7 +2632,7 @@
         <v>694392</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="39" t="s">
         <v>30</v>
       </c>
@@ -2624,7 +2661,7 @@
         <v>785194</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="39" t="s">
         <v>31</v>
       </c>
@@ -2653,7 +2690,7 @@
         <v>824300.99</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="40" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2719,7 @@
         <v>874208.56649999996</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="40" t="s">
         <v>33</v>
       </c>
@@ -2711,7 +2748,7 @@
         <v>948521.67230967898</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="40" t="s">
         <v>34</v>
       </c>
@@ -2740,7 +2777,7 @@
         <v>1001190.6843085778</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="40" t="s">
         <v>58</v>
       </c>
@@ -2769,7 +2806,7 @@
         <v>1061182.6382699322</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="41" t="s">
         <v>59</v>
       </c>
@@ -2798,7 +2835,7 @@
         <v>1130243.8375010479</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="27" t="s">
         <v>35</v>
       </c>
@@ -2827,7 +2864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="45" t="s">
         <v>60</v>
       </c>
@@ -2856,7 +2893,7 @@
         <v>6.5079465815335542</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="47" t="s">
         <v>61</v>
       </c>
@@ -2885,7 +2922,7 @@
         <v>7.3906893769725812</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="30" t="s">
         <v>36</v>
       </c>
@@ -2900,7 +2937,7 @@
       <c r="J96" s="31"/>
       <c r="K96" s="31"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="30" t="s">
         <v>37</v>
       </c>
@@ -2915,7 +2952,7 @@
       <c r="J97" s="30"/>
       <c r="K97" s="30"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>63</v>
       </c>
@@ -2931,9 +2968,9 @@
     <mergeCell ref="J79:J81"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1"/>
-    <hyperlink ref="B75" r:id="rId2"/>
-    <hyperlink ref="K65" r:id="rId3"/>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B75" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K65" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2947,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2957,14 +2994,14 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="37" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="37" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3103,127 +3140,127 @@
       </c>
       <c r="G2" s="9">
         <f>$F$2*('Revised Calcs_India'!C10/'Revised Calcs_India'!$B$10)</f>
-        <v>936.4375188198502</v>
+        <v>915.44878019872704</v>
       </c>
       <c r="H2" s="9">
         <f>$F$2*('Revised Calcs_India'!D10/'Revised Calcs_India'!$B$10)</f>
-        <v>1034.1750050024132</v>
+        <v>992.34466080550828</v>
       </c>
       <c r="I2" s="9">
         <f>$F$2*('Revised Calcs_India'!E10/'Revised Calcs_India'!$B$10)</f>
-        <v>1118.856919161507</v>
+        <v>1053.1777454116559</v>
       </c>
       <c r="J2" s="9">
         <f>$F$2*('Revised Calcs_India'!F10/'Revised Calcs_India'!$B$10)</f>
-        <v>1213.0923742218947</v>
+        <v>1111.3422142099921</v>
       </c>
       <c r="K2" s="9">
         <f>$F$2*('Revised Calcs_India'!G10/'Revised Calcs_India'!$B$10)</f>
-        <v>1304.3917263894509</v>
+        <v>1166.2362091672662</v>
       </c>
       <c r="L2" s="9">
         <f>$F$2*('Revised Calcs_India'!H10/'Revised Calcs_India'!$B$10)</f>
-        <v>1394.3687116052736</v>
+        <v>1215.5147551161886</v>
       </c>
       <c r="M2" s="9">
         <f>$F$2*('Revised Calcs_India'!I10/'Revised Calcs_India'!$B$10)</f>
-        <v>1483.0289331191582</v>
+        <v>1263.1069629908131</v>
       </c>
       <c r="N2" s="9">
         <f>$F$2*('Revised Calcs_India'!J10/'Revised Calcs_India'!$B$10)</f>
-        <v>1571.94130087384</v>
+        <v>1314.2251504753331</v>
       </c>
       <c r="O2" s="9">
         <f>$F$2*('Revised Calcs_India'!K10/'Revised Calcs_India'!$B$10)</f>
-        <v>1694.2378309099929</v>
+        <v>1380.7985980212616</v>
       </c>
       <c r="P2" s="9">
         <f>$F$2*('Revised Calcs_India'!L10/'Revised Calcs_India'!$B$10)</f>
-        <v>1816.8985721828521</v>
+        <v>1448.2066977453781</v>
       </c>
       <c r="Q2" s="9">
         <f>$F$2*('Revised Calcs_India'!M10/'Revised Calcs_India'!$B$10)</f>
-        <v>1940.2821326793287</v>
+        <v>1515.1662428975433</v>
       </c>
       <c r="R2" s="9">
         <f>$F$2*('Revised Calcs_India'!N10/'Revised Calcs_India'!$B$10)</f>
-        <v>2063.2790689399167</v>
+        <v>1601.4022788316638</v>
       </c>
       <c r="S2" s="9">
         <f>$F$2*('Revised Calcs_India'!O10/'Revised Calcs_India'!$B$10)</f>
-        <v>2186.3096246992777</v>
+        <v>1689.1599935668341</v>
       </c>
       <c r="T2" s="9">
         <f>$F$2*('Revised Calcs_India'!P10/'Revised Calcs_India'!$B$10)</f>
-        <v>2321.0677822805787</v>
+        <v>1778.6324359061725</v>
       </c>
       <c r="U2" s="9">
         <f>$F$2*('Revised Calcs_India'!Q10/'Revised Calcs_India'!$B$10)</f>
-        <v>2456.2966128447006</v>
+        <v>1867.8720841005743</v>
       </c>
       <c r="V2" s="9">
         <f>$F$2*('Revised Calcs_India'!R10/'Revised Calcs_India'!$B$10)</f>
-        <v>2591.6879376528914</v>
+        <v>1955.220989605612</v>
       </c>
       <c r="W2" s="9">
         <f>$F$2*('Revised Calcs_India'!S10/'Revised Calcs_India'!$B$10)</f>
-        <v>2726.64781222683</v>
+        <v>2039.8842455849162</v>
       </c>
       <c r="X2" s="9">
         <f>$F$2*('Revised Calcs_India'!T10/'Revised Calcs_India'!$B$10)</f>
-        <v>2863.3559007369581</v>
+        <v>2123.4857331470703</v>
       </c>
       <c r="Y2" s="9">
         <f>$F$2*('Revised Calcs_India'!U10/'Revised Calcs_India'!$B$10)</f>
-        <v>2999.6829682609937</v>
+        <v>2210.0056643798939</v>
       </c>
       <c r="Z2" s="9">
         <f>$F$2*('Revised Calcs_India'!V10/'Revised Calcs_India'!$B$10)</f>
-        <v>3135.2479938128445</v>
+        <v>2296.9514385607727</v>
       </c>
       <c r="AA2" s="9">
         <f>$F$2*('Revised Calcs_India'!W10/'Revised Calcs_India'!$B$10)</f>
-        <v>3272.5500268012938</v>
+        <v>2383.4997593234671</v>
       </c>
       <c r="AB2" s="9">
         <f>$F$2*('Revised Calcs_India'!X10/'Revised Calcs_India'!$B$10)</f>
-        <v>3410.5916887627463</v>
+        <v>2469.4291883349879</v>
       </c>
       <c r="AC2" s="9">
         <f>$F$2*('Revised Calcs_India'!Y10/'Revised Calcs_India'!$B$10)</f>
-        <v>3548.00018349731</v>
+        <v>2550.2598577817976</v>
       </c>
       <c r="AD2" s="9">
         <f>$F$2*('Revised Calcs_India'!Z10/'Revised Calcs_India'!$B$10)</f>
-        <v>3659.8690656640747</v>
+        <v>2621.0690231843796</v>
       </c>
       <c r="AE2" s="9">
         <f>$F$2*('Revised Calcs_India'!AA10/'Revised Calcs_India'!$B$10)</f>
-        <v>3782.5578231859113</v>
+        <v>2690.2088842305866</v>
       </c>
       <c r="AF2" s="9">
         <f>$F$2*('Revised Calcs_India'!AB10/'Revised Calcs_India'!$B$10)</f>
-        <v>3899.1166254314926</v>
+        <v>2757.8043548518467</v>
       </c>
       <c r="AG2" s="9">
         <f>$F$2*('Revised Calcs_India'!AC10/'Revised Calcs_India'!$B$10)</f>
-        <v>4009.4109944057273</v>
+        <v>2822.4529922725669</v>
       </c>
       <c r="AH2" s="9">
         <f>$F$2*('Revised Calcs_India'!AD10/'Revised Calcs_India'!$B$10)</f>
-        <v>4134.9237898244855</v>
+        <v>2885.199531191975</v>
       </c>
       <c r="AI2" s="9">
         <f>$F$2*('Revised Calcs_India'!AE10/'Revised Calcs_India'!$B$10)</f>
-        <v>4245.0164418060831</v>
+        <v>2946.7650656687774</v>
       </c>
       <c r="AJ2" s="9">
         <f>$F$2*('Revised Calcs_India'!AF10/'Revised Calcs_India'!$B$10)</f>
-        <v>4362.0739332834619</v>
+        <v>3007.0757829253107</v>
       </c>
       <c r="AK2" s="9">
         <f>$F$2*('Revised Calcs_India'!AG10/'Revised Calcs_India'!$B$10)</f>
-        <v>4478.9072947690211</v>
+        <v>3064.9733901428658</v>
       </c>
     </row>
   </sheetData>
@@ -3237,26 +3274,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="8" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="37" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3406,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3390,127 +3427,127 @@
       </c>
       <c r="G2" s="9">
         <f>FORECAST('DRC-PADRC'!G1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!G2</f>
-        <v>6947.3701671700364</v>
+        <v>6968.3589057911595</v>
       </c>
       <c r="H2" s="9">
         <f>FORECAST('DRC-PADRC'!H1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!H2</f>
-        <v>13811.251912388485</v>
+        <v>13853.082256585389</v>
       </c>
       <c r="I2" s="9">
         <f>FORECAST('DRC-PADRC'!I1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!I2</f>
-        <v>20688.189229630403</v>
+        <v>20753.868403380253</v>
       </c>
       <c r="J2" s="9">
         <f>FORECAST('DRC-PADRC'!J1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!J2</f>
-        <v>27555.573005971026</v>
+        <v>27657.323165982929</v>
       </c>
       <c r="K2" s="9">
         <f>FORECAST('DRC-PADRC'!K1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!K2</f>
-        <v>34425.892885204477</v>
+        <v>34564.048402426663</v>
       </c>
       <c r="L2" s="9">
         <f>FORECAST('DRC-PADRC'!L1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!L2</f>
-        <v>41297.535131389668</v>
+        <v>41476.389087878757</v>
       </c>
       <c r="M2" s="9">
         <f>FORECAST('DRC-PADRC'!M1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!M2</f>
-        <v>48170.494141276795</v>
+        <v>48390.416111405139</v>
       </c>
       <c r="N2" s="9">
         <f>FORECAST('DRC-PADRC'!N1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!N2</f>
-        <v>55043.201004923125</v>
+        <v>55300.917155321629</v>
       </c>
       <c r="O2" s="9">
         <f>FORECAST('DRC-PADRC'!O1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!O2</f>
-        <v>61882.523706287982</v>
+        <v>62195.962939176716</v>
       </c>
       <c r="P2" s="9">
         <f>FORECAST('DRC-PADRC'!P1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!P2</f>
-        <v>68721.482196416138</v>
+        <v>69090.174070853609</v>
       </c>
       <c r="Q2" s="9">
         <f>FORECAST('DRC-PADRC'!Q1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Q2</f>
-        <v>75559.717867320665</v>
+        <v>75984.83375710246</v>
       </c>
       <c r="R2" s="9">
         <f>FORECAST('DRC-PADRC'!R1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!R2</f>
-        <v>82398.3401624611</v>
+        <v>82860.216952569346</v>
       </c>
       <c r="S2" s="9">
         <f>FORECAST('DRC-PADRC'!S1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!S2</f>
-        <v>89236.928838102744</v>
+        <v>89734.078469235188</v>
       </c>
       <c r="T2" s="9">
         <f>FORECAST('DRC-PADRC'!T1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!T2</f>
-        <v>96063.78991192246</v>
+        <v>96606.225258296865</v>
       </c>
       <c r="U2" s="9">
         <f>FORECAST('DRC-PADRC'!U1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!U2</f>
-        <v>102890.18031275934</v>
+        <v>103478.60484150347</v>
       </c>
       <c r="V2" s="9">
         <f>FORECAST('DRC-PADRC'!V1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!V2</f>
-        <v>109716.40821935216</v>
+        <v>110352.87516739944</v>
       </c>
       <c r="W2" s="9">
         <f>FORECAST('DRC-PADRC'!W1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!W2</f>
-        <v>116543.06757617924</v>
+        <v>117229.83114282115</v>
       </c>
       <c r="X2" s="9">
         <f>FORECAST('DRC-PADRC'!X1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!X2</f>
-        <v>123367.97871907012</v>
+        <v>124107.84888666001</v>
       </c>
       <c r="Y2" s="9">
         <f>FORECAST('DRC-PADRC'!Y1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Y2</f>
-        <v>130193.27088294709</v>
+        <v>130982.9481868282</v>
       </c>
       <c r="Z2" s="9">
         <f>FORECAST('DRC-PADRC'!Z1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!Z2</f>
-        <v>137019.3250887944</v>
+        <v>137857.62164404648</v>
       </c>
       <c r="AA2" s="9">
         <f>FORECAST('DRC-PADRC'!AA1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AA2</f>
-        <v>143843.64228720695</v>
+        <v>144732.69255468479</v>
       </c>
       <c r="AB2" s="9">
         <f>FORECAST('DRC-PADRC'!AB1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AB2</f>
-        <v>150667.21985664652</v>
+        <v>151608.38235707427</v>
       </c>
       <c r="AC2" s="9">
         <f>FORECAST('DRC-PADRC'!AC1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AC2</f>
-        <v>157491.43059331295</v>
+        <v>158489.17091902849</v>
       </c>
       <c r="AD2" s="9">
         <f>FORECAST('DRC-PADRC'!AD1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AD2</f>
-        <v>164341.18094254722</v>
+        <v>165379.98098502689</v>
       </c>
       <c r="AE2" s="9">
         <f>FORECAST('DRC-PADRC'!AE1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AE2</f>
-        <v>171180.11141642637</v>
+        <v>172272.46035538171</v>
       </c>
       <c r="AF2" s="9">
         <f>FORECAST('DRC-PADRC'!AF1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AF2</f>
-        <v>178025.17184558182</v>
+        <v>179166.48411616147</v>
       </c>
       <c r="AG2" s="9">
         <f>FORECAST('DRC-PADRC'!AG1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AG2</f>
-        <v>184876.49670800858</v>
+        <v>186063.45471014176</v>
       </c>
       <c r="AH2" s="9">
         <f>FORECAST('DRC-PADRC'!AH1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AH2</f>
-        <v>191712.60314399085</v>
+        <v>192962.32740262334</v>
       </c>
       <c r="AI2" s="9">
         <f>FORECAST('DRC-PADRC'!AI1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AI2</f>
-        <v>198564.12972341027</v>
+        <v>199862.38109954755</v>
       </c>
       <c r="AJ2" s="9">
         <f>FORECAST('DRC-PADRC'!AJ1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AJ2</f>
-        <v>205408.6914633339</v>
+        <v>206763.68961369205</v>
       </c>
       <c r="AK2" s="9">
         <f>FORECAST('DRC-PADRC'!AK1,'Revised Calcs_India'!$B$3:$C$3,'Revised Calcs_India'!$B$2:$C$2)-'DRC-BDRC'!AK2</f>
-        <v>212253.47733324935</v>
+        <v>213667.41123787549</v>
       </c>
     </row>
   </sheetData>
